--- a/SSW-555--Project 04-Sprint4/Team_DDGK_Report.xlsx
+++ b/SSW-555--Project 04-Sprint4/Team_DDGK_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gopi/Desktop/SSW 555/Git/SSW-555-DDGK/SSW-555--Project 04-Sprint4/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krutarth\Desktop\SSW-555-DDGK-master\SSW-555--Project 04-Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{686AA102-1905-0447-B705-AFD7403E24D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF1C35E-698C-4313-BA55-38820F5C610C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="13820" windowHeight="10420" tabRatio="500" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="282">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -756,12 +756,6 @@
     <t>Not Completed</t>
   </si>
   <si>
-    <t>Not to meet in-person</t>
-  </si>
-  <si>
-    <t>Missing the deadline</t>
-  </si>
-  <si>
     <t>UserStories.py</t>
   </si>
   <si>
@@ -885,10 +879,46 @@
     <t>﻿test_US35</t>
   </si>
   <si>
-    <t>208-212</t>
-  </si>
-  <si>
-    <t>215-219</t>
+    <t>Submission on time</t>
+  </si>
+  <si>
+    <t>Posting updates in gropu chat</t>
+  </si>
+  <si>
+    <t>Do Not avoid Unit testing and frequent Integration testing</t>
+  </si>
+  <si>
+    <t>Updating code with errors</t>
+  </si>
+  <si>
+    <t>US39_List_upcoming_marriage_anniversary</t>
+  </si>
+  <si>
+    <t>US38_List_upcoming_birthdays</t>
+  </si>
+  <si>
+    <t>762-778</t>
+  </si>
+  <si>
+    <t>782-804</t>
+  </si>
+  <si>
+    <t>test_US38</t>
+  </si>
+  <si>
+    <t>test_US39</t>
+  </si>
+  <si>
+    <t>210-214</t>
+  </si>
+  <si>
+    <t>217-221</t>
+  </si>
+  <si>
+    <t>204-208</t>
+  </si>
+  <si>
+    <t>197-201</t>
   </si>
 </sst>
 </file>
@@ -899,7 +929,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="35">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1083,9 +1113,30 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="7"/>
-      <name val="Consolas"/>
-      <family val="3"/>
+      <b/>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="8">
@@ -1209,7 +1260,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1320,25 +1371,28 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="32" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1450,7 +1504,7 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>42046</c:v>
@@ -1521,7 +1575,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2514,13 +2568,13 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.69140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.69140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.69140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1">
@@ -2637,17 +2691,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="56" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="28" defaultRowHeight="67" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="28" defaultRowHeight="67" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="28" style="50"/>
-    <col min="2" max="2" width="46.33203125" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.1640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.3046875" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.15234375" style="50" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="28" style="50"/>
-    <col min="11" max="11" width="53.1640625" style="50" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.921875" style="50" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="28" style="50"/>
   </cols>
   <sheetData>
@@ -2722,10 +2776,10 @@
         <v>226</v>
       </c>
       <c r="J2" s="50" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N2" s="50" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="67" customHeight="1">
@@ -2753,10 +2807,10 @@
         <v>226</v>
       </c>
       <c r="J3" s="50" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N3" s="50" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="67" customHeight="1">
@@ -2788,22 +2842,22 @@
         <v>210</v>
       </c>
       <c r="J4" s="50" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K4" s="50" t="s">
+        <v>264</v>
+      </c>
+      <c r="L4" s="50" t="s">
+        <v>262</v>
+      </c>
+      <c r="N4" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="O4" s="50" t="s">
         <v>266</v>
       </c>
-      <c r="L4" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="N4" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="O4" s="50" t="s">
-        <v>268</v>
-      </c>
       <c r="P4" s="50" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="67" customHeight="1">
@@ -2835,22 +2889,22 @@
         <v>210</v>
       </c>
       <c r="J5" s="50" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K5" s="50" t="s">
+        <v>265</v>
+      </c>
+      <c r="L5" s="50" t="s">
+        <v>263</v>
+      </c>
+      <c r="N5" s="50" t="s">
+        <v>232</v>
+      </c>
+      <c r="O5" s="50" t="s">
         <v>267</v>
       </c>
-      <c r="L5" s="50" t="s">
-        <v>265</v>
-      </c>
-      <c r="N5" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="O5" s="50" t="s">
-        <v>269</v>
-      </c>
       <c r="P5" s="50" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:16" ht="67" customHeight="1">
@@ -2866,7 +2920,7 @@
         <v>197</v>
       </c>
       <c r="D6" s="50" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E6" s="50">
         <v>20</v>
@@ -2874,14 +2928,32 @@
       <c r="F6" s="50">
         <v>50</v>
       </c>
+      <c r="G6" s="50">
+        <v>18</v>
+      </c>
+      <c r="H6" s="50">
+        <v>15</v>
+      </c>
       <c r="I6" s="50" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="J6" s="50" t="s">
-        <v>229</v>
+        <v>227</v>
+      </c>
+      <c r="K6" s="50" t="s">
+        <v>273</v>
+      </c>
+      <c r="L6" s="50" t="s">
+        <v>274</v>
       </c>
       <c r="N6" s="50" t="s">
-        <v>234</v>
+        <v>232</v>
+      </c>
+      <c r="O6" s="50" t="s">
+        <v>276</v>
+      </c>
+      <c r="P6" s="50" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:16" ht="67" customHeight="1">
@@ -2897,7 +2969,7 @@
         <v>197</v>
       </c>
       <c r="D7" s="50" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E7" s="50">
         <v>25</v>
@@ -2905,14 +2977,32 @@
       <c r="F7" s="50">
         <v>45</v>
       </c>
+      <c r="G7" s="50">
+        <v>22</v>
+      </c>
+      <c r="H7" s="50">
+        <v>20</v>
+      </c>
       <c r="I7" s="50" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="J7" s="50" t="s">
-        <v>229</v>
+        <v>227</v>
+      </c>
+      <c r="K7" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="L7" s="50" t="s">
+        <v>275</v>
       </c>
       <c r="N7" s="50" t="s">
-        <v>234</v>
+        <v>232</v>
+      </c>
+      <c r="O7" s="50" t="s">
+        <v>277</v>
+      </c>
+      <c r="P7" s="50" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:16" ht="67" customHeight="1">
@@ -2938,10 +3028,10 @@
         <v>226</v>
       </c>
       <c r="J8" s="50" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N8" s="50" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:16" ht="67" customHeight="1">
@@ -2967,10 +3057,10 @@
         <v>226</v>
       </c>
       <c r="J9" s="50" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N9" s="50" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="67" customHeight="1">
@@ -2988,17 +3078,17 @@
     </row>
     <row r="16" spans="1:16" ht="67" customHeight="1">
       <c r="B16" s="54" t="s">
-        <v>220</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="2:2" ht="67" customHeight="1">
       <c r="B17" s="54" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="67" customHeight="1">
       <c r="B18" s="54" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="2:2" ht="67" customHeight="1">
@@ -3007,14 +3097,10 @@
       </c>
     </row>
     <row r="20" spans="2:2" ht="67" customHeight="1">
-      <c r="B20" s="54" t="s">
-        <v>223</v>
-      </c>
+      <c r="B20" s="54"/>
     </row>
     <row r="21" spans="2:2" ht="67" customHeight="1">
-      <c r="B21" s="54" t="s">
-        <v>225</v>
-      </c>
+      <c r="B21" s="54"/>
     </row>
     <row r="22" spans="2:2" ht="67" customHeight="1">
       <c r="B22" s="54"/>
@@ -3026,12 +3112,12 @@
     </row>
     <row r="24" spans="2:2" ht="67" customHeight="1">
       <c r="B24" s="54" t="s">
-        <v>221</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="67" customHeight="1">
       <c r="B25" s="54" t="s">
-        <v>222</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="2:2" ht="67" customHeight="1">
@@ -3040,14 +3126,10 @@
       </c>
     </row>
     <row r="27" spans="2:2" ht="67" customHeight="1">
-      <c r="B27" s="54" t="s">
-        <v>227</v>
-      </c>
+      <c r="B27" s="54"/>
     </row>
     <row r="28" spans="2:2" ht="67" customHeight="1">
-      <c r="B28" s="54" t="s">
-        <v>228</v>
-      </c>
+      <c r="B28" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3063,7 +3145,7 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12.1640625" defaultRowHeight="19" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.15234375" defaultRowHeight="19" customHeight="1"/>
   <cols>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
   </cols>
@@ -3086,546 +3168,546 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="19" customHeight="1">
-      <c r="A2" s="59">
+      <c r="A2" s="56">
         <v>1</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="56" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="59" t="s">
+      <c r="C2" s="56" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="59" t="s">
+      <c r="D2" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="59" t="s">
+      <c r="E2" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="19" customHeight="1">
-      <c r="A3" s="59">
+      <c r="A3" s="56">
         <v>1</v>
       </c>
-      <c r="B3" s="59" t="s">
+      <c r="B3" s="56" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="59" t="s">
+      <c r="C3" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="59" t="s">
+      <c r="D3" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="E3" s="59" t="s">
+      <c r="E3" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="19" customHeight="1">
-      <c r="A4" s="59">
+      <c r="A4" s="56">
         <v>1</v>
       </c>
-      <c r="B4" s="59" t="s">
+      <c r="B4" s="56" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="59" t="s">
+      <c r="C4" s="56" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="59" t="s">
+      <c r="D4" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="E4" s="59" t="s">
+      <c r="E4" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="19" customHeight="1">
-      <c r="A5" s="59">
+      <c r="A5" s="56">
         <v>1</v>
       </c>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="56" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="59" t="s">
+      <c r="C5" s="56" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="59" t="s">
+      <c r="D5" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="19" customHeight="1">
-      <c r="A6" s="59">
+      <c r="A6" s="56">
         <v>1</v>
       </c>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="56" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="59" t="s">
+      <c r="C6" s="56" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="59" t="s">
+      <c r="D6" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="19" customHeight="1">
-      <c r="A7" s="59">
+      <c r="A7" s="56">
         <v>1</v>
       </c>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="59" t="s">
+      <c r="C7" s="56" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="59" t="s">
+      <c r="D7" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="19" customHeight="1">
-      <c r="A8" s="59">
+      <c r="A8" s="56">
         <v>1</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="56" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="56" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="19" customHeight="1">
-      <c r="A9" s="59">
+      <c r="A9" s="56">
         <v>1</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="56" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="59" t="s">
+      <c r="C9" s="56" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="59" t="s">
+      <c r="D9" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="59" t="s">
+      <c r="E9" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="19" customHeight="1">
-      <c r="A10" s="59">
+      <c r="A10" s="56">
         <v>2</v>
       </c>
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="56" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="59" t="s">
+      <c r="C10" s="56" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="59" t="s">
+      <c r="D10" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="E10" s="59" t="s">
+      <c r="E10" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="19" customHeight="1">
-      <c r="A11" s="59">
+      <c r="A11" s="56">
         <v>2</v>
       </c>
-      <c r="B11" s="62" t="s">
+      <c r="B11" s="57" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="62" t="s">
+      <c r="C11" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="59" t="s">
+      <c r="D11" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="59" t="s">
+      <c r="E11" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="19" customHeight="1">
-      <c r="A12" s="59">
+      <c r="A12" s="56">
         <v>2</v>
       </c>
-      <c r="B12" s="62" t="s">
+      <c r="B12" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="59" t="s">
+      <c r="D12" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="59" t="s">
+      <c r="E12" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="19" customHeight="1">
-      <c r="A13" s="59">
+      <c r="A13" s="56">
         <v>2</v>
       </c>
-      <c r="B13" s="59" t="s">
+      <c r="B13" s="56" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="56" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="59" t="s">
+      <c r="D13" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="E13" s="59" t="s">
+      <c r="E13" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="19" customHeight="1">
-      <c r="A14" s="59">
+      <c r="A14" s="56">
         <v>2</v>
       </c>
-      <c r="B14" s="59" t="s">
+      <c r="B14" s="56" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="56" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="E14" s="59" t="s">
+      <c r="E14" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="19" customHeight="1">
-      <c r="A15" s="59">
+      <c r="A15" s="56">
         <v>2</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="56" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="56" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="59" t="s">
+      <c r="D15" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="E15" s="59" t="s">
+      <c r="E15" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="19" customHeight="1">
-      <c r="A16" s="59">
+      <c r="A16" s="56">
         <v>2</v>
       </c>
-      <c r="B16" s="59" t="s">
+      <c r="B16" s="56" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="59" t="s">
+      <c r="D16" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="E16" s="59" t="s">
+      <c r="E16" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="19" customHeight="1">
-      <c r="A17" s="59">
+      <c r="A17" s="56">
         <v>2</v>
       </c>
-      <c r="B17" s="59" t="s">
+      <c r="B17" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="59" t="s">
+      <c r="D17" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="E17" s="59" t="s">
+      <c r="E17" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="19" customHeight="1">
-      <c r="A18" s="59">
+      <c r="A18" s="56">
         <v>3</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="59" t="s">
+      <c r="C18" s="56" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="59" t="s">
+      <c r="D18" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="E18" s="59" t="s">
+      <c r="E18" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="19" customHeight="1">
-      <c r="A19" s="59">
+      <c r="A19" s="56">
         <v>3</v>
       </c>
-      <c r="B19" s="59" t="s">
+      <c r="B19" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="59" t="s">
+      <c r="D19" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="E19" s="59" t="s">
+      <c r="E19" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="19" customHeight="1">
-      <c r="A20" s="59">
+      <c r="A20" s="56">
         <v>3</v>
       </c>
-      <c r="B20" s="59" t="s">
+      <c r="B20" s="56" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="59" t="s">
+      <c r="D20" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="E20" s="59" t="s">
+      <c r="E20" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="19" customHeight="1">
-      <c r="A21" s="59">
+      <c r="A21" s="56">
         <v>3</v>
       </c>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="59" t="s">
+      <c r="D21" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="E21" s="59" t="s">
+      <c r="E21" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="19" customHeight="1">
-      <c r="A22" s="59">
+      <c r="A22" s="56">
         <v>3</v>
       </c>
-      <c r="B22" s="59" t="s">
+      <c r="B22" s="56" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="59" t="s">
+      <c r="C22" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="59" t="s">
+      <c r="D22" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="E22" s="59" t="s">
+      <c r="E22" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="19" customHeight="1">
-      <c r="A23" s="59">
+      <c r="A23" s="56">
         <v>3</v>
       </c>
-      <c r="B23" s="59" t="s">
+      <c r="B23" s="56" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="59" t="s">
+      <c r="C23" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="59" t="s">
+      <c r="D23" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="E23" s="59" t="s">
+      <c r="E23" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="19" customHeight="1">
-      <c r="A24" s="59">
+      <c r="A24" s="56">
         <v>3</v>
       </c>
-      <c r="B24" s="59" t="s">
+      <c r="B24" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="59" t="s">
+      <c r="C24" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="59" t="s">
+      <c r="D24" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="E24" s="59" t="s">
+      <c r="E24" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="19" customHeight="1">
-      <c r="A25" s="59">
+      <c r="A25" s="56">
         <v>3</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="56" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="59" t="s">
+      <c r="C25" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="59" t="s">
+      <c r="D25" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="E25" s="59" t="s">
+      <c r="E25" s="56" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="19" customHeight="1">
-      <c r="A26" s="59">
+      <c r="A26" s="56">
         <v>4</v>
       </c>
-      <c r="B26" s="59" t="s">
+      <c r="B26" s="56" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="59" t="s">
+      <c r="C26" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="59" t="s">
+      <c r="D26" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="59" t="s">
+      <c r="E26" s="56" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="19" customHeight="1">
-      <c r="A27" s="59">
+      <c r="A27" s="56">
         <v>4</v>
       </c>
-      <c r="B27" s="59" t="s">
+      <c r="B27" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="56" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="59" t="s">
+      <c r="D27" s="56" t="s">
         <v>195</v>
       </c>
-      <c r="E27" s="59" t="s">
+      <c r="E27" s="56" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="19" customHeight="1">
-      <c r="A28" s="59">
+      <c r="A28" s="56">
         <v>4</v>
       </c>
-      <c r="B28" s="59" t="s">
+      <c r="B28" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="56" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="E28" s="59" t="s">
+      <c r="E28" s="56" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="19" customHeight="1">
-      <c r="A29" s="59">
+      <c r="A29" s="56">
         <v>4</v>
       </c>
-      <c r="B29" s="59" t="s">
+      <c r="B29" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="56" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="59" t="s">
+      <c r="D29" s="56" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="59" t="s">
+      <c r="E29" s="56" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="19" customHeight="1">
-      <c r="A30" s="59">
+      <c r="A30" s="56">
         <v>4</v>
       </c>
-      <c r="B30" s="59" t="s">
+      <c r="B30" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="59" t="s">
+      <c r="C30" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="59" t="s">
+      <c r="D30" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="E30" s="59" t="s">
+      <c r="E30" s="56" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="19" customHeight="1">
-      <c r="A31" s="59">
+      <c r="A31" s="56">
         <v>4</v>
       </c>
-      <c r="B31" s="59" t="s">
+      <c r="B31" s="56" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="56" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="59" t="s">
+      <c r="D31" s="56" t="s">
         <v>197</v>
       </c>
-      <c r="E31" s="59" t="s">
+      <c r="E31" s="56" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="19" customHeight="1">
-      <c r="A32" s="59">
+      <c r="A32" s="56">
         <v>4</v>
       </c>
-      <c r="B32" s="59" t="s">
+      <c r="B32" s="56" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="59" t="s">
+      <c r="D32" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="E32" s="59" t="s">
+      <c r="E32" s="56" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="19" customHeight="1">
-      <c r="A33" s="59">
+      <c r="A33" s="56">
         <v>4</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="56" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="56" t="s">
         <v>188</v>
       </c>
-      <c r="E33" s="59" t="s">
+      <c r="E33" s="56" t="s">
         <v>201</v>
       </c>
     </row>
@@ -3648,7 +3730,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3662,14 +3744,14 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="2"/>
+    <col min="2" max="2" width="9.4609375" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -3854,27 +3936,27 @@
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.6640625" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.69140625" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.15234375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.5" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.69140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.15234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.4609375" style="15" customWidth="1"/>
     <col min="12" max="12" width="25" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.6640625" style="15"/>
-    <col min="15" max="15" width="9.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.69140625" style="15"/>
+    <col min="15" max="15" width="9.15234375" style="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.1640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.15234375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18" customHeight="1">
@@ -3934,8 +4016,8 @@
       <c r="C2" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>201</v>
+      <c r="D2" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -3973,8 +4055,8 @@
       <c r="C3" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>201</v>
+      <c r="D3" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -4008,8 +4090,8 @@
       <c r="C4" s="30" t="s">
         <v>197</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>201</v>
+      <c r="D4" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -4043,8 +4125,8 @@
       <c r="C5" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="30" t="s">
-        <v>201</v>
+      <c r="D5" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -4078,8 +4160,8 @@
       <c r="C6" s="30" t="s">
         <v>195</v>
       </c>
-      <c r="D6" s="30" t="s">
-        <v>201</v>
+      <c r="D6" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="E6">
         <v>25</v>
@@ -4113,8 +4195,8 @@
       <c r="C7" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="D7" s="30" t="s">
-        <v>201</v>
+      <c r="D7" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -4148,8 +4230,8 @@
       <c r="C8" s="30" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="30" t="s">
-        <v>201</v>
+      <c r="D8" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -4187,8 +4269,8 @@
       <c r="C9" s="30" t="s">
         <v>190</v>
       </c>
-      <c r="D9" s="30" t="s">
-        <v>201</v>
+      <c r="D9" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="E9">
         <v>25</v>
@@ -4277,14 +4359,14 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="2"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="2"/>
+    <col min="2" max="2" width="16.69140625" customWidth="1"/>
+    <col min="3" max="3" width="21.69140625" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1">
@@ -4403,16 +4485,16 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
-    <col min="9" max="9" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.69140625" customWidth="1"/>
+    <col min="9" max="9" width="13.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14">
+    <row r="1" spans="1:9">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -4673,7 +4755,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14">
+    <row r="12" spans="1:9">
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
@@ -4681,37 +4763,37 @@
     <row r="13" spans="1:9">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:9" ht="14">
+    <row r="14" spans="1:9">
       <c r="B14" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28">
+    <row r="15" spans="1:9" ht="27">
       <c r="B15" s="42" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14">
+    <row r="16" spans="1:9">
       <c r="B16" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="14">
+    <row r="17" spans="2:2">
       <c r="B17" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="28">
+    <row r="18" spans="2:2" ht="27">
       <c r="B18" s="42" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="14">
+    <row r="19" spans="2:2">
       <c r="B19" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="28">
+    <row r="20" spans="2:2" ht="27">
       <c r="B20" s="42" t="s">
         <v>225</v>
       </c>
@@ -4719,22 +4801,22 @@
     <row r="21" spans="2:2">
       <c r="B21" s="42"/>
     </row>
-    <row r="22" spans="2:2" ht="14">
+    <row r="22" spans="2:2">
       <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:2" ht="14">
+    <row r="23" spans="2:2">
       <c r="B23" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="14">
+    <row r="24" spans="2:2">
       <c r="B24" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="28">
+    <row r="25" spans="2:2" ht="27">
       <c r="B25" s="42" t="s">
         <v>224</v>
       </c>
@@ -4751,507 +4833,507 @@
   <dimension ref="A1:O27"/>
   <sheetViews>
     <sheetView zoomScale="87" zoomScaleNormal="39" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C9"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="19" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="19" style="57"/>
-    <col min="2" max="2" width="27" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" style="57" customWidth="1"/>
-    <col min="4" max="10" width="19" style="57"/>
-    <col min="11" max="11" width="44.6640625" style="57" customWidth="1"/>
-    <col min="12" max="16384" width="19" style="57"/>
+    <col min="1" max="1" width="19" style="60"/>
+    <col min="2" max="2" width="27" style="60" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" style="60" customWidth="1"/>
+    <col min="4" max="10" width="19" style="60"/>
+    <col min="11" max="11" width="44.69140625" style="60" customWidth="1"/>
+    <col min="12" max="16384" width="19" style="60"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="30" customHeight="1">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="55" t="s">
+      <c r="K1" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="L1" s="55" t="s">
+      <c r="L1" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="M1" s="55" t="s">
+      <c r="M1" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="N1" s="55" t="s">
+      <c r="N1" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="55" t="s">
+      <c r="O1" s="58" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="30" customHeight="1">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="61" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="58" t="s">
+      <c r="B2" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="58" t="s">
+      <c r="C2" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="58" t="s">
+      <c r="D2" s="61" t="s">
         <v>213</v>
       </c>
-      <c r="E2" s="57">
+      <c r="E2" s="60">
         <v>30</v>
       </c>
-      <c r="F2" s="57">
+      <c r="F2" s="60">
         <v>70</v>
       </c>
-      <c r="G2" s="57">
+      <c r="G2" s="60">
         <v>35</v>
       </c>
-      <c r="H2" s="57">
+      <c r="H2" s="60">
         <v>25</v>
       </c>
-      <c r="I2" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="J2" s="59" t="s">
+      <c r="I2" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="J2" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="K2" s="60" t="s">
+        <v>259</v>
+      </c>
+      <c r="L2" s="60" t="s">
+        <v>247</v>
+      </c>
+      <c r="M2" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="N2" s="60" t="s">
+        <v>260</v>
+      </c>
+      <c r="O2" s="60" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1">
+      <c r="A3" s="61" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="E3" s="60">
+        <v>35</v>
+      </c>
+      <c r="F3" s="60">
+        <v>55</v>
+      </c>
+      <c r="G3" s="60">
+        <v>24</v>
+      </c>
+      <c r="H3" s="60">
+        <v>45</v>
+      </c>
+      <c r="I3" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="J3" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="K3" s="63" t="s">
+        <v>246</v>
+      </c>
+      <c r="L3" s="60" t="s">
+        <v>248</v>
+      </c>
+      <c r="M3" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="N3" s="60" t="s">
+        <v>251</v>
+      </c>
+      <c r="O3" s="60" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="30" customHeight="1">
+      <c r="A4" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="E4" s="60">
+        <v>25</v>
+      </c>
+      <c r="F4" s="60">
+        <v>60</v>
+      </c>
+      <c r="G4" s="60">
+        <v>32</v>
+      </c>
+      <c r="H4" s="60">
+        <v>65</v>
+      </c>
+      <c r="I4" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="J4" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="K4" s="60" t="s">
+        <v>228</v>
+      </c>
+      <c r="L4" s="60" t="s">
+        <v>231</v>
+      </c>
+      <c r="M4" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="N4" s="60" t="s">
+        <v>233</v>
+      </c>
+      <c r="O4" s="60" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="30" customHeight="1">
+      <c r="A5" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="E5" s="60">
+        <v>30</v>
+      </c>
+      <c r="F5" s="60">
+        <v>45</v>
+      </c>
+      <c r="G5" s="60">
+        <v>24</v>
+      </c>
+      <c r="H5" s="60">
+        <v>40</v>
+      </c>
+      <c r="I5" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="J5" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="K5" s="60" t="s">
         <v>229</v>
       </c>
-      <c r="K2" s="59" t="s">
+      <c r="L5" s="60" t="s">
+        <v>230</v>
+      </c>
+      <c r="M5" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="N5" s="60" t="s">
+        <v>234</v>
+      </c>
+      <c r="O5" s="60" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="30" customHeight="1">
+      <c r="A6" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="E6" s="60">
+        <v>20</v>
+      </c>
+      <c r="F6" s="60">
+        <v>50</v>
+      </c>
+      <c r="G6" s="60">
+        <v>30</v>
+      </c>
+      <c r="H6" s="60">
+        <v>45</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="J6" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="K6" s="60" t="s">
+        <v>245</v>
+      </c>
+      <c r="L6" s="60" t="s">
+        <v>249</v>
+      </c>
+      <c r="M6" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="N6" s="60" t="s">
+        <v>252</v>
+      </c>
+      <c r="O6" s="60" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1">
+      <c r="A7" s="61" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="61" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="E7" s="60">
+        <v>25</v>
+      </c>
+      <c r="F7" s="60">
+        <v>45</v>
+      </c>
+      <c r="G7" s="60">
+        <v>27</v>
+      </c>
+      <c r="H7" s="60">
+        <v>30</v>
+      </c>
+      <c r="I7" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="J7" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="K7" s="60" t="s">
+        <v>244</v>
+      </c>
+      <c r="L7" s="60" t="s">
+        <v>250</v>
+      </c>
+      <c r="M7" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="N7" s="60" t="s">
+        <v>253</v>
+      </c>
+      <c r="O7" s="60" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1">
+      <c r="A8" s="61" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="E8" s="60">
+        <v>30</v>
+      </c>
+      <c r="F8" s="60">
+        <v>55</v>
+      </c>
+      <c r="G8" s="60">
+        <v>14</v>
+      </c>
+      <c r="H8" s="60">
+        <v>45</v>
+      </c>
+      <c r="I8" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="J8" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="K8" s="60" t="s">
+        <v>240</v>
+      </c>
+      <c r="L8" s="60" t="s">
+        <v>243</v>
+      </c>
+      <c r="M8" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="N8" s="60" t="s">
+        <v>238</v>
+      </c>
+      <c r="O8" s="60" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="30" customHeight="1">
+      <c r="A9" s="61" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="61" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="61" t="s">
+        <v>213</v>
+      </c>
+      <c r="E9" s="60">
+        <v>27</v>
+      </c>
+      <c r="F9" s="60">
+        <v>40</v>
+      </c>
+      <c r="G9" s="60">
+        <v>13</v>
+      </c>
+      <c r="H9" s="60">
+        <v>30</v>
+      </c>
+      <c r="I9" s="60" t="s">
+        <v>210</v>
+      </c>
+      <c r="J9" s="60" t="s">
+        <v>227</v>
+      </c>
+      <c r="K9" s="60" t="s">
+        <v>241</v>
+      </c>
+      <c r="L9" s="60" t="s">
+        <v>242</v>
+      </c>
+      <c r="M9" s="60" t="s">
+        <v>232</v>
+      </c>
+      <c r="N9" s="60" t="s">
+        <v>239</v>
+      </c>
+      <c r="O9" s="60" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="52" customHeight="1">
+      <c r="C14" s="59" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="61" customHeight="1">
+      <c r="C15" s="62" t="s">
         <v>261</v>
       </c>
-      <c r="L2" s="59" t="s">
-        <v>249</v>
-      </c>
-      <c r="M2" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="N2" s="59" t="s">
-        <v>262</v>
-      </c>
-      <c r="O2" s="59" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
-      <c r="A3" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="58" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="57">
-        <v>35</v>
-      </c>
-      <c r="F3" s="57">
-        <v>55</v>
-      </c>
-      <c r="G3" s="57">
-        <v>24</v>
-      </c>
-      <c r="H3" s="57">
-        <v>45</v>
-      </c>
-      <c r="I3" s="57" t="s">
-        <v>210</v>
-      </c>
-      <c r="J3" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="K3" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="L3" s="59" t="s">
-        <v>250</v>
-      </c>
-      <c r="M3" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="N3" s="59" t="s">
-        <v>253</v>
-      </c>
-      <c r="O3" s="59" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="30" customHeight="1">
-      <c r="A4" s="58" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="57">
-        <v>25</v>
-      </c>
-      <c r="F4" s="57">
-        <v>60</v>
-      </c>
-      <c r="G4" s="57">
+    </row>
+    <row r="16" spans="1:15" ht="30" customHeight="1">
+      <c r="C16" s="59" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="30" customHeight="1">
+      <c r="C17" s="62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="30" customHeight="1">
+      <c r="C18" s="62" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="30" customHeight="1">
+      <c r="C19" s="62" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" ht="30" customHeight="1">
+      <c r="C20" s="62" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" ht="30" customHeight="1">
+      <c r="C21" s="62" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" ht="30" customHeight="1">
+      <c r="C22" s="62" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" ht="30" customHeight="1">
+      <c r="C23" s="62"/>
+    </row>
+    <row r="24" spans="3:3" ht="30" customHeight="1">
+      <c r="C24" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="57">
-        <v>65</v>
-      </c>
-      <c r="I4" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="J4" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="K4" s="59" t="s">
-        <v>230</v>
-      </c>
-      <c r="L4" s="59" t="s">
-        <v>233</v>
-      </c>
-      <c r="M4" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="N4" s="59" t="s">
-        <v>235</v>
-      </c>
-      <c r="O4" s="59" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1">
-      <c r="A5" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="58" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" s="57">
-        <v>30</v>
-      </c>
-      <c r="F5" s="57">
-        <v>45</v>
-      </c>
-      <c r="G5" s="57">
-        <v>24</v>
-      </c>
-      <c r="H5" s="57">
-        <v>40</v>
-      </c>
-      <c r="I5" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="J5" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="K5" s="57" t="s">
-        <v>231</v>
-      </c>
-      <c r="L5" s="59" t="s">
-        <v>232</v>
-      </c>
-      <c r="M5" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="N5" s="59" t="s">
-        <v>236</v>
-      </c>
-      <c r="O5" s="59" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="30" customHeight="1">
-      <c r="A6" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="57">
-        <v>20</v>
-      </c>
-      <c r="F6" s="57">
-        <v>50</v>
-      </c>
-      <c r="G6" s="57">
-        <v>30</v>
-      </c>
-      <c r="H6" s="57">
-        <v>45</v>
-      </c>
-      <c r="I6" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="J6" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="K6" s="57" t="s">
-        <v>247</v>
-      </c>
-      <c r="L6" s="59" t="s">
-        <v>251</v>
-      </c>
-      <c r="M6" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="N6" s="59" t="s">
-        <v>254</v>
-      </c>
-      <c r="O6" s="59" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
-      <c r="A7" s="58" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="58" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="58" t="s">
-        <v>188</v>
-      </c>
-      <c r="D7" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="57">
-        <v>25</v>
-      </c>
-      <c r="F7" s="57">
-        <v>45</v>
-      </c>
-      <c r="G7" s="57">
-        <v>27</v>
-      </c>
-      <c r="H7" s="57">
-        <v>30</v>
-      </c>
-      <c r="I7" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="J7" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="K7" s="57" t="s">
-        <v>246</v>
-      </c>
-      <c r="L7" s="59" t="s">
-        <v>252</v>
-      </c>
-      <c r="M7" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="N7" s="59" t="s">
-        <v>255</v>
-      </c>
-      <c r="O7" s="59" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
-      <c r="A8" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="57">
-        <v>30</v>
-      </c>
-      <c r="F8" s="57">
-        <v>55</v>
-      </c>
-      <c r="G8" s="57">
-        <v>14</v>
-      </c>
-      <c r="H8" s="57">
-        <v>45</v>
-      </c>
-      <c r="I8" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="J8" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="K8" s="57" t="s">
-        <v>242</v>
-      </c>
-      <c r="L8" s="59" t="s">
-        <v>245</v>
-      </c>
-      <c r="M8" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="N8" s="59" t="s">
-        <v>240</v>
-      </c>
-      <c r="O8" s="59" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="30" customHeight="1">
-      <c r="A9" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="58" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="58" t="s">
-        <v>190</v>
-      </c>
-      <c r="D9" s="58" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="57">
-        <v>27</v>
-      </c>
-      <c r="F9" s="57">
-        <v>40</v>
-      </c>
-      <c r="G9" s="57">
-        <v>13</v>
-      </c>
-      <c r="H9" s="57">
-        <v>30</v>
-      </c>
-      <c r="I9" s="59" t="s">
-        <v>210</v>
-      </c>
-      <c r="J9" s="59" t="s">
-        <v>229</v>
-      </c>
-      <c r="K9" s="57" t="s">
-        <v>243</v>
-      </c>
-      <c r="L9" s="59" t="s">
-        <v>244</v>
-      </c>
-      <c r="M9" s="59" t="s">
-        <v>234</v>
-      </c>
-      <c r="N9" s="59" t="s">
-        <v>241</v>
-      </c>
-      <c r="O9" s="59" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="52" customHeight="1">
-      <c r="C14" s="56" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="61" customHeight="1">
-      <c r="C15" s="61" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="30" customHeight="1">
-      <c r="C16" s="56" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" ht="30" customHeight="1">
-      <c r="C17" s="61" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="18" spans="3:3" ht="30" customHeight="1">
-      <c r="C18" s="61" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" ht="30" customHeight="1">
-      <c r="C19" s="61" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" ht="30" customHeight="1">
-      <c r="C20" s="61" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" ht="30" customHeight="1">
-      <c r="C21" s="61" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" ht="30" customHeight="1">
-      <c r="C22" s="61" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" ht="30" customHeight="1">
-      <c r="C23" s="61"/>
-    </row>
-    <row r="24" spans="3:3" ht="30" customHeight="1">
-      <c r="C24" s="56" t="s">
-        <v>32</v>
-      </c>
     </row>
     <row r="25" spans="3:3" ht="30" customHeight="1">
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="62" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="26" spans="3:3" ht="30" customHeight="1">
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="62" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="27" spans="3:3" ht="30" customHeight="1">
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="62" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5266,17 +5348,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="61" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B17" sqref="A17:B17"/>
+    <sheetView zoomScale="61" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.4609375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" ht="14">
+    <row r="1" spans="1:6" s="4" customFormat="1">
       <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
@@ -5287,7 +5369,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="34">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="18" t="s">
         <v>112</v>
       </c>
@@ -5302,7 +5384,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="34">
+    <row r="3" spans="1:6" ht="15">
       <c r="A3" s="20" t="s">
         <v>113</v>
       </c>
@@ -5317,7 +5399,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="17">
+    <row r="4" spans="1:6" ht="15">
       <c r="A4" s="20" t="s">
         <v>114</v>
       </c>
@@ -5332,7 +5414,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="34">
+    <row r="5" spans="1:6" ht="30">
       <c r="A5" s="26" t="s">
         <v>115</v>
       </c>
@@ -5347,7 +5429,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="34">
+    <row r="6" spans="1:6" ht="15">
       <c r="A6" s="26" t="s">
         <v>116</v>
       </c>
@@ -5358,7 +5440,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="34">
+    <row r="7" spans="1:6" ht="15">
       <c r="A7" s="24" t="s">
         <v>117</v>
       </c>
@@ -5369,7 +5451,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="51">
+    <row r="8" spans="1:6" ht="45">
       <c r="A8" s="24" t="s">
         <v>118</v>
       </c>
@@ -5380,7 +5462,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="34">
+    <row r="9" spans="1:6" ht="30">
       <c r="A9" s="18" t="s">
         <v>119</v>
       </c>
@@ -5391,7 +5473,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="34">
+    <row r="10" spans="1:6" ht="30">
       <c r="A10" s="20" t="s">
         <v>120</v>
       </c>
@@ -5402,7 +5484,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="51">
+    <row r="11" spans="1:6" ht="30">
       <c r="A11" s="32" t="s">
         <v>121</v>
       </c>
@@ -5413,7 +5495,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="34">
+    <row r="12" spans="1:6" ht="30">
       <c r="A12" s="32" t="s">
         <v>122</v>
       </c>
@@ -5424,7 +5506,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="51">
+    <row r="13" spans="1:6" ht="45">
       <c r="A13" s="26" t="s">
         <v>123</v>
       </c>
@@ -5435,7 +5517,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="68">
+    <row r="14" spans="1:6" ht="60">
       <c r="A14" s="26" t="s">
         <v>124</v>
       </c>
@@ -5446,7 +5528,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="34">
+    <row r="15" spans="1:6" ht="30">
       <c r="A15" s="24" t="s">
         <v>125</v>
       </c>
@@ -5457,7 +5539,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="17">
+    <row r="16" spans="1:6" ht="15">
       <c r="A16" s="24" t="s">
         <v>126</v>
       </c>
@@ -5468,7 +5550,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="34">
+    <row r="17" spans="1:3" ht="30">
       <c r="A17" s="35" t="s">
         <v>127</v>
       </c>
@@ -5479,18 +5561,18 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="17">
-      <c r="A18" s="35" t="s">
+    <row r="18" spans="1:3" ht="15">
+      <c r="A18" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="30" t="s">
         <v>175</v>
       </c>
-      <c r="C18" s="36" t="s">
+      <c r="C18" s="10" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="17">
+    <row r="19" spans="1:3" ht="15">
       <c r="A19" s="35" t="s">
         <v>129</v>
       </c>
@@ -5501,7 +5583,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="17">
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" s="37" t="s">
         <v>130</v>
       </c>
@@ -5512,7 +5594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="34">
+    <row r="21" spans="1:3" ht="30">
       <c r="A21" s="37" t="s">
         <v>131</v>
       </c>
@@ -5523,7 +5605,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="34">
+    <row r="22" spans="1:3" ht="30">
       <c r="A22" s="24" t="s">
         <v>132</v>
       </c>
@@ -5534,7 +5616,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="34">
+    <row r="23" spans="1:3" ht="30">
       <c r="A23" s="24" t="s">
         <v>133</v>
       </c>
@@ -5545,7 +5627,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="34">
+    <row r="24" spans="1:3" ht="30">
       <c r="A24" s="18" t="s">
         <v>134</v>
       </c>
@@ -5556,7 +5638,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="51">
+    <row r="25" spans="1:3" ht="45">
       <c r="A25" s="18" t="s">
         <v>135</v>
       </c>
@@ -5567,7 +5649,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="34">
+    <row r="26" spans="1:3" ht="30">
       <c r="A26" s="37" t="s">
         <v>136</v>
       </c>
@@ -5578,7 +5660,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="136">
+    <row r="27" spans="1:3" ht="105">
       <c r="A27" s="41" t="s">
         <v>137</v>
       </c>
@@ -5589,7 +5671,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="34">
+    <row r="28" spans="1:3" ht="15">
       <c r="A28" s="18" t="s">
         <v>138</v>
       </c>
@@ -5600,7 +5682,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="34">
+    <row r="29" spans="1:3" ht="30">
       <c r="A29" s="18" t="s">
         <v>139</v>
       </c>
@@ -5611,36 +5693,36 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="17">
-      <c r="A30" s="39" t="s">
+    <row r="30" spans="1:3" ht="15">
+      <c r="A30" s="30" t="s">
         <v>140</v>
       </c>
-      <c r="B30" s="39" t="s">
+      <c r="B30" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C30" s="40" t="s">
+      <c r="C30" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="17">
-      <c r="A31" s="39" t="s">
+    <row r="31" spans="1:3" ht="15">
+      <c r="A31" s="30" t="s">
         <v>141</v>
       </c>
-      <c r="B31" s="39" t="s">
+      <c r="B31" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C31" s="40" t="s">
+      <c r="C31" s="10" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="34">
-      <c r="A32" s="22" t="s">
+    <row r="32" spans="1:3" ht="30">
+      <c r="A32" s="39" t="s">
         <v>142</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="39" t="s">
         <v>98</v>
       </c>
-      <c r="C32" s="23" t="s">
+      <c r="C32" s="40" t="s">
         <v>54</v>
       </c>
     </row>
@@ -5655,7 +5737,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="34">
+    <row r="34" spans="1:3" ht="30">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -5666,7 +5748,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="51">
+    <row r="35" spans="1:3" ht="30">
       <c r="A35" t="s">
         <v>145</v>
       </c>
@@ -5677,7 +5759,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="34">
+    <row r="36" spans="1:3" ht="30">
       <c r="A36" s="26" t="s">
         <v>146</v>
       </c>
@@ -5688,7 +5770,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="34">
+    <row r="37" spans="1:3" ht="30">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -5699,7 +5781,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="34">
+    <row r="38" spans="1:3" ht="30">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -5710,29 +5792,29 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="34">
-      <c r="A39" t="s">
+    <row r="39" spans="1:3" ht="30">
+      <c r="A39" s="39" t="s">
         <v>149</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="39" t="s">
         <v>104</v>
       </c>
-      <c r="C39" s="10" t="s">
+      <c r="C39" s="40" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="34">
-      <c r="A40" t="s">
+    <row r="40" spans="1:3" ht="30">
+      <c r="A40" s="39" t="s">
         <v>150</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="C40" s="40" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="34">
+    <row r="41" spans="1:3" ht="30">
       <c r="A41" t="s">
         <v>151</v>
       </c>
@@ -5743,7 +5825,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="34">
+    <row r="42" spans="1:3" ht="30">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -5754,7 +5836,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="34">
+    <row r="43" spans="1:3" ht="30">
       <c r="A43" t="s">
         <v>153</v>
       </c>

--- a/SSW-555--Project 04-Sprint4/Team_DDGK_Report.xlsx
+++ b/SSW-555--Project 04-Sprint4/Team_DDGK_Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krutarth\Desktop\SSW-555-DDGK-master\SSW-555--Project 04-Sprint4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhaval\Downloads\SSW-555-DDGK-master (4)\SSW-555-DDGK-master\SSW-555--Project 04-Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CF1C35E-698C-4313-BA55-38820F5C610C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25CFC65-862E-43A9-BDE6-7C1F68B9FA83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="290">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -919,6 +919,30 @@
   </si>
   <si>
     <t>197-201</t>
+  </si>
+  <si>
+    <t>US27_List_individual_current_ages</t>
+  </si>
+  <si>
+    <t>US36_List_recent_deaths</t>
+  </si>
+  <si>
+    <t>809-817</t>
+  </si>
+  <si>
+    <t>822-831</t>
+  </si>
+  <si>
+    <t>test_US27</t>
+  </si>
+  <si>
+    <t>test_US36</t>
+  </si>
+  <si>
+    <t>223-229</t>
+  </si>
+  <si>
+    <t>231-235</t>
   </si>
 </sst>
 </file>
@@ -929,7 +953,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="35" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -2568,7 +2592,7 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.69140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
@@ -2577,7 +2601,7 @@
     <col min="5" max="5" width="42.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2594,7 +2618,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1">
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>187</v>
       </c>
@@ -2611,7 +2635,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1">
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -2628,7 +2652,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1">
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>186</v>
       </c>
@@ -2645,7 +2669,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1">
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>187</v>
       </c>
@@ -2662,7 +2686,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1">
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2691,11 +2715,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E2" zoomScale="56" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="56" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28" defaultRowHeight="67" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="28" defaultRowHeight="67" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="28" style="50"/>
     <col min="2" max="2" width="46.3046875" style="50" bestFit="1" customWidth="1"/>
@@ -2705,7 +2729,7 @@
     <col min="12" max="16384" width="28" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="67" customHeight="1">
+    <row r="1" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="45" t="s">
         <v>3</v>
       </c>
@@ -2753,12 +2777,12 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="67" customHeight="1">
+    <row r="2" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="51" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C2" s="52" t="s">
         <v>190</v>
@@ -2772,17 +2796,35 @@
       <c r="F2" s="50">
         <v>30</v>
       </c>
+      <c r="G2" s="50">
+        <v>12</v>
+      </c>
+      <c r="H2" s="50">
+        <v>25</v>
+      </c>
       <c r="I2" s="50" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="J2" s="50" t="s">
         <v>227</v>
       </c>
+      <c r="K2" s="50" t="s">
+        <v>282</v>
+      </c>
+      <c r="L2" s="50" t="s">
+        <v>284</v>
+      </c>
       <c r="N2" s="50" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="67" customHeight="1">
+      <c r="O2" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="P2" s="50" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="51" t="str">
         <f>Stories!A37</f>
         <v>US36</v>
@@ -2803,17 +2845,35 @@
       <c r="F3" s="50">
         <v>55</v>
       </c>
+      <c r="G3" s="50">
+        <v>13</v>
+      </c>
+      <c r="H3" s="50">
+        <v>20</v>
+      </c>
       <c r="I3" s="50" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="J3" s="50" t="s">
         <v>227</v>
       </c>
+      <c r="K3" s="50" t="s">
+        <v>283</v>
+      </c>
+      <c r="L3" s="50" t="s">
+        <v>285</v>
+      </c>
       <c r="N3" s="50" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" ht="67" customHeight="1">
+      <c r="O3" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="P3" s="50" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="51" t="s">
         <v>136</v>
       </c>
@@ -2860,7 +2920,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="67" customHeight="1">
+    <row r="5" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="50" t="s">
         <v>146</v>
       </c>
@@ -2907,7 +2967,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="67" customHeight="1">
+    <row r="6" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="51" t="str">
         <f>Stories!A39</f>
         <v>US38</v>
@@ -2956,7 +3016,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="67" customHeight="1">
+    <row r="7" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="51" t="str">
         <f>Stories!A40</f>
         <v>US39</v>
@@ -3005,7 +3065,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="67" customHeight="1">
+    <row r="8" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="51" t="s">
         <v>141</v>
       </c>
@@ -3034,7 +3094,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="67" customHeight="1">
+    <row r="9" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="51" t="s">
         <v>144</v>
       </c>
@@ -3063,77 +3123,78 @@
         <v>232</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="67" customHeight="1">
+    <row r="13" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B13" s="46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="67" customHeight="1">
+    <row r="14" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B14" s="46"/>
     </row>
-    <row r="15" spans="1:16" ht="67" customHeight="1">
+    <row r="15" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B15" s="46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="67" customHeight="1">
+    <row r="16" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B16" s="54" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="67" customHeight="1">
+    <row r="17" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B17" s="54" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="67" customHeight="1">
+    <row r="18" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B18" s="54" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="67" customHeight="1">
+    <row r="19" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B19" s="54" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="67" customHeight="1">
+    <row r="20" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B20" s="54"/>
     </row>
-    <row r="21" spans="2:2" ht="67" customHeight="1">
+    <row r="21" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B21" s="54"/>
     </row>
-    <row r="22" spans="2:2" ht="67" customHeight="1">
+    <row r="22" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B22" s="54"/>
     </row>
-    <row r="23" spans="2:2" ht="67" customHeight="1">
+    <row r="23" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B23" s="46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="67" customHeight="1">
+    <row r="24" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B24" s="54" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="67" customHeight="1">
+    <row r="25" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B25" s="54" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="67" customHeight="1">
+    <row r="26" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B26" s="54" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="67" customHeight="1">
+    <row r="27" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B27" s="54"/>
     </row>
-    <row r="28" spans="2:2" ht="67" customHeight="1">
+    <row r="28" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B28" s="54"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3145,12 +3206,12 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.15234375" defaultRowHeight="19" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="12.15234375" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="19" customHeight="1">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="55" t="s">
         <v>29</v>
       </c>
@@ -3167,7 +3228,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19" customHeight="1">
+    <row r="2" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="56">
         <v>1</v>
       </c>
@@ -3184,7 +3245,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19" customHeight="1">
+    <row r="3" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="56">
         <v>1</v>
       </c>
@@ -3201,7 +3262,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19" customHeight="1">
+    <row r="4" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="56">
         <v>1</v>
       </c>
@@ -3218,7 +3279,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19" customHeight="1">
+    <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="56">
         <v>1</v>
       </c>
@@ -3235,7 +3296,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19" customHeight="1">
+    <row r="6" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="56">
         <v>1</v>
       </c>
@@ -3252,7 +3313,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19" customHeight="1">
+    <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="56">
         <v>1</v>
       </c>
@@ -3269,7 +3330,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19" customHeight="1">
+    <row r="8" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="56">
         <v>1</v>
       </c>
@@ -3286,7 +3347,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19" customHeight="1">
+    <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="56">
         <v>1</v>
       </c>
@@ -3303,7 +3364,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19" customHeight="1">
+    <row r="10" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="56">
         <v>2</v>
       </c>
@@ -3320,7 +3381,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19" customHeight="1">
+    <row r="11" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="56">
         <v>2</v>
       </c>
@@ -3337,7 +3398,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19" customHeight="1">
+    <row r="12" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="56">
         <v>2</v>
       </c>
@@ -3354,7 +3415,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19" customHeight="1">
+    <row r="13" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="56">
         <v>2</v>
       </c>
@@ -3371,7 +3432,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19" customHeight="1">
+    <row r="14" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="56">
         <v>2</v>
       </c>
@@ -3388,7 +3449,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19" customHeight="1">
+    <row r="15" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="56">
         <v>2</v>
       </c>
@@ -3405,7 +3466,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="19" customHeight="1">
+    <row r="16" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="56">
         <v>2</v>
       </c>
@@ -3422,7 +3483,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="19" customHeight="1">
+    <row r="17" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="56">
         <v>2</v>
       </c>
@@ -3439,7 +3500,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="19" customHeight="1">
+    <row r="18" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="56">
         <v>3</v>
       </c>
@@ -3456,7 +3517,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="19" customHeight="1">
+    <row r="19" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="56">
         <v>3</v>
       </c>
@@ -3473,7 +3534,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="19" customHeight="1">
+    <row r="20" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="56">
         <v>3</v>
       </c>
@@ -3490,7 +3551,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="19" customHeight="1">
+    <row r="21" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="56">
         <v>3</v>
       </c>
@@ -3507,7 +3568,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="19" customHeight="1">
+    <row r="22" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="56">
         <v>3</v>
       </c>
@@ -3524,7 +3585,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="19" customHeight="1">
+    <row r="23" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A23" s="56">
         <v>3</v>
       </c>
@@ -3541,7 +3602,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="19" customHeight="1">
+    <row r="24" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A24" s="56">
         <v>3</v>
       </c>
@@ -3558,7 +3619,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="19" customHeight="1">
+    <row r="25" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="56">
         <v>3</v>
       </c>
@@ -3575,7 +3636,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="19" customHeight="1">
+    <row r="26" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="56">
         <v>4</v>
       </c>
@@ -3592,7 +3653,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="19" customHeight="1">
+    <row r="27" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="56">
         <v>4</v>
       </c>
@@ -3609,7 +3670,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="19" customHeight="1">
+    <row r="28" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="56">
         <v>4</v>
       </c>
@@ -3626,7 +3687,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="19" customHeight="1">
+    <row r="29" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="56">
         <v>4</v>
       </c>
@@ -3643,7 +3704,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="19" customHeight="1">
+    <row r="30" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="56">
         <v>4</v>
       </c>
@@ -3660,7 +3721,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="19" customHeight="1">
+    <row r="31" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="56">
         <v>4</v>
       </c>
@@ -3677,7 +3738,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="19" customHeight="1">
+    <row r="32" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A32" s="56">
         <v>4</v>
       </c>
@@ -3694,7 +3755,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="19" customHeight="1">
+    <row r="33" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="56">
         <v>4</v>
       </c>
@@ -3711,10 +3772,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="19" customHeight="1">
+    <row r="34" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="30"/>
     </row>
-    <row r="35" spans="1:5" ht="19" customHeight="1">
+    <row r="35" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E35" s="30"/>
     </row>
   </sheetData>
@@ -3730,7 +3791,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3744,7 +3805,7 @@
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.84375" style="2"/>
     <col min="2" max="2" width="9.4609375" customWidth="1"/>
@@ -3754,37 +3815,37 @@
     <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>159</v>
       </c>
@@ -3807,7 +3868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -3823,7 +3884,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -3848,7 +3909,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>162</v>
       </c>
@@ -3874,7 +3935,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>163</v>
       </c>
@@ -3899,7 +3960,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>164</v>
       </c>
@@ -3939,7 +4000,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69140625" defaultRowHeight="18" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.69140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="33.15234375" style="1" bestFit="1" customWidth="1"/>
@@ -3959,7 +4020,7 @@
     <col min="17" max="17" width="10.15234375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1">
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -4006,7 +4067,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1">
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>112</v>
       </c>
@@ -4045,7 +4106,7 @@
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
     </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1">
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>113</v>
       </c>
@@ -4080,7 +4141,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1">
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>114</v>
       </c>
@@ -4115,7 +4176,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1">
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>115</v>
       </c>
@@ -4150,7 +4211,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1">
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>116</v>
       </c>
@@ -4185,7 +4246,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1">
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>117</v>
       </c>
@@ -4220,7 +4281,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18" customHeight="1">
+    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>118</v>
       </c>
@@ -4259,7 +4320,7 @@
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
     </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1">
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>119</v>
       </c>
@@ -4294,52 +4355,52 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18" customHeight="1">
+    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="30"/>
       <c r="G10">
         <f>SUM(G2:G9)</f>
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1">
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18" customHeight="1">
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:17" ht="18" customHeight="1">
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="18" customHeight="1">
+    <row r="17" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="42" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="18" customHeight="1">
+    <row r="18" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="18" customHeight="1">
+    <row r="19" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="18" customHeight="1">
+    <row r="20" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="18" customHeight="1">
+    <row r="21" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="42" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="18" customHeight="1">
+    <row r="22" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="42" t="s">
         <v>215</v>
       </c>
@@ -4359,7 +4420,7 @@
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.84375" style="2"/>
     <col min="2" max="2" width="16.69140625" customWidth="1"/>
@@ -4369,7 +4430,7 @@
     <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4389,7 +4450,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>42046</v>
       </c>
@@ -4409,7 +4470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>42061</v>
       </c>
@@ -4431,7 +4492,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>42087</v>
       </c>
@@ -4452,7 +4513,7 @@
         <v>53.142857142857139</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>42101</v>
       </c>
@@ -4488,13 +4549,13 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="25.69140625" customWidth="1"/>
     <col min="9" max="9" width="13.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -4523,7 +4584,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>120</v>
       </c>
@@ -4552,7 +4613,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>121</v>
       </c>
@@ -4581,7 +4642,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>122</v>
       </c>
@@ -4610,7 +4671,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>123</v>
       </c>
@@ -4639,7 +4700,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>124</v>
       </c>
@@ -4668,7 +4729,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>125</v>
       </c>
@@ -4697,7 +4758,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>126</v>
       </c>
@@ -4726,7 +4787,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>142</v>
       </c>
@@ -4755,68 +4816,68 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="27">
+    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B15" s="42" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B17" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="27">
+    <row r="18" spans="2:2" ht="27" x14ac:dyDescent="0.3">
       <c r="B18" s="42" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="27">
+    <row r="20" spans="2:2" ht="27" x14ac:dyDescent="0.3">
       <c r="B20" s="42" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="42"/>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B24" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="27">
+    <row r="25" spans="2:2" ht="27" x14ac:dyDescent="0.3">
       <c r="B25" s="42" t="s">
         <v>224</v>
       </c>
@@ -4836,7 +4897,7 @@
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" style="60"/>
     <col min="2" max="2" width="27" style="60" bestFit="1" customWidth="1"/>
@@ -4846,7 +4907,7 @@
     <col min="12" max="16384" width="19" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1">
+    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="58" t="s">
         <v>3</v>
       </c>
@@ -4893,7 +4954,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1">
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="61" t="s">
         <v>127</v>
       </c>
@@ -4940,7 +5001,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1">
+    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="61" t="s">
         <v>129</v>
       </c>
@@ -4987,7 +5048,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30" customHeight="1">
+    <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="61" t="s">
         <v>130</v>
       </c>
@@ -5034,7 +5095,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1">
+    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="61" t="s">
         <v>131</v>
       </c>
@@ -5081,7 +5142,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30" customHeight="1">
+    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="61" t="s">
         <v>132</v>
       </c>
@@ -5128,7 +5189,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1">
+    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="61" t="s">
         <v>133</v>
       </c>
@@ -5175,7 +5236,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1">
+    <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="61" t="s">
         <v>134</v>
       </c>
@@ -5222,7 +5283,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="30" customHeight="1">
+    <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="61" t="s">
         <v>135</v>
       </c>
@@ -5269,70 +5330,70 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="52" customHeight="1">
+    <row r="14" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="59" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="61" customHeight="1">
+    <row r="15" spans="1:15" ht="61" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="62" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="30" customHeight="1">
+    <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="59" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="30" customHeight="1">
+    <row r="17" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="62" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="30" customHeight="1">
+    <row r="18" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="62" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="3:3" ht="30" customHeight="1">
+    <row r="19" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="62" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="3:3" ht="30" customHeight="1">
+    <row r="20" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="62" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="3:3" ht="30" customHeight="1">
+    <row r="21" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="62" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="30" customHeight="1">
+    <row r="22" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="62" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="3:3" ht="30" customHeight="1">
+    <row r="23" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="62"/>
     </row>
-    <row r="24" spans="3:3" ht="30" customHeight="1">
+    <row r="24" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="59" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="3:3" ht="30" customHeight="1">
+    <row r="25" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="62" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="3:3" ht="30" customHeight="1">
+    <row r="26" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="62" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="3:3" ht="30" customHeight="1">
+    <row r="27" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C27" s="62" t="s">
         <v>224</v>
       </c>
@@ -5348,17 +5409,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView zoomScale="61" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="F41" sqref="F41"/>
+    <sheetView topLeftCell="A28" zoomScale="86" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="28.15234375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49.4609375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
@@ -5369,7 +5430,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>112</v>
       </c>
@@ -5384,7 +5445,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>113</v>
       </c>
@@ -5399,7 +5460,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>114</v>
       </c>
@@ -5414,7 +5475,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>115</v>
       </c>
@@ -5429,7 +5490,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>116</v>
       </c>
@@ -5440,7 +5501,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>117</v>
       </c>
@@ -5451,7 +5512,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>118</v>
       </c>
@@ -5462,7 +5523,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>119</v>
       </c>
@@ -5473,7 +5534,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>120</v>
       </c>
@@ -5484,7 +5545,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>121</v>
       </c>
@@ -5495,7 +5556,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>122</v>
       </c>
@@ -5506,7 +5567,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>123</v>
       </c>
@@ -5517,7 +5578,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="60">
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>124</v>
       </c>
@@ -5528,7 +5589,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30">
+    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>125</v>
       </c>
@@ -5539,7 +5600,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>126</v>
       </c>
@@ -5550,7 +5611,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
         <v>127</v>
       </c>
@@ -5561,7 +5622,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>128</v>
       </c>
@@ -5572,7 +5633,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>129</v>
       </c>
@@ -5583,7 +5644,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>130</v>
       </c>
@@ -5594,7 +5655,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
         <v>131</v>
       </c>
@@ -5605,7 +5666,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>132</v>
       </c>
@@ -5616,7 +5677,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>133</v>
       </c>
@@ -5627,7 +5688,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>134</v>
       </c>
@@ -5638,7 +5699,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>135</v>
       </c>
@@ -5649,7 +5710,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
         <v>136</v>
       </c>
@@ -5660,7 +5721,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>137</v>
       </c>
@@ -5671,7 +5732,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>138</v>
       </c>
@@ -5682,7 +5743,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>139</v>
       </c>
@@ -5693,7 +5754,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>140</v>
       </c>
@@ -5704,7 +5765,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>141</v>
       </c>
@@ -5715,7 +5776,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="39" t="s">
         <v>142</v>
       </c>
@@ -5726,7 +5787,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="23" customHeight="1">
+    <row r="33" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>143</v>
       </c>
@@ -5737,7 +5798,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -5748,7 +5809,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>145</v>
       </c>
@@ -5759,7 +5820,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>146</v>
       </c>
@@ -5770,7 +5831,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -5781,7 +5842,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -5792,7 +5853,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
         <v>149</v>
       </c>
@@ -5803,7 +5864,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" s="39" t="s">
         <v>150</v>
       </c>
@@ -5814,7 +5875,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>151</v>
       </c>
@@ -5825,7 +5886,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -5836,7 +5897,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>153</v>
       </c>

--- a/SSW-555--Project 04-Sprint4/Team_DDGK_Report.xlsx
+++ b/SSW-555--Project 04-Sprint4/Team_DDGK_Report.xlsx
@@ -5,12 +5,12 @@
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhaval\Downloads\SSW-555-DDGK-master (4)\SSW-555-DDGK-master\SSW-555--Project 04-Sprint4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Stevens\CS 555\SSW-555-DDGK\SSW-555--Project 04-Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25CFC65-862E-43A9-BDE6-7C1F68B9FA83}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9567FED-DEEA-462C-B77C-D643CA6D5326}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" firstSheet="4" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="297">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -943,6 +943,27 @@
   </si>
   <si>
     <t>231-235</t>
+  </si>
+  <si>
+    <t>US30_List_living_married</t>
+  </si>
+  <si>
+    <t>US33_List_orphans</t>
+  </si>
+  <si>
+    <t>863-894</t>
+  </si>
+  <si>
+    <t>836-859</t>
+  </si>
+  <si>
+    <t>test_US30</t>
+  </si>
+  <si>
+    <t>238-243</t>
+  </si>
+  <si>
+    <t>246-251</t>
   </si>
 </sst>
 </file>
@@ -1679,6 +1700,9 @@
                 <c:pt idx="3">
                   <c:v>42101</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>42115</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1699,6 +1723,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2592,16 +2619,16 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.69140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.69140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.69140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.84375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2618,7 +2645,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>187</v>
       </c>
@@ -2635,7 +2662,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -2652,7 +2679,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>186</v>
       </c>
@@ -2669,7 +2696,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>187</v>
       </c>
@@ -2686,7 +2713,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2715,21 +2742,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="56" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="56" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28" defaultRowHeight="67" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="28" defaultRowHeight="66.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="28" style="50"/>
-    <col min="2" max="2" width="46.3046875" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.15234375" style="50" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.25" style="50" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.125" style="50" bestFit="1" customWidth="1"/>
     <col min="4" max="10" width="28" style="50"/>
-    <col min="11" max="11" width="57.921875" style="50" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="57.875" style="50" bestFit="1" customWidth="1"/>
     <col min="12" max="16384" width="28" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="45" t="s">
         <v>3</v>
       </c>
@@ -2777,7 +2804,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="51" t="s">
         <v>138</v>
       </c>
@@ -2788,7 +2815,7 @@
         <v>190</v>
       </c>
       <c r="D2" s="50" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E2" s="50">
         <v>25</v>
@@ -2824,7 +2851,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="51" t="str">
         <f>Stories!A37</f>
         <v>US36</v>
@@ -2837,7 +2864,7 @@
         <v>190</v>
       </c>
       <c r="D3" s="50" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E3" s="50">
         <v>45</v>
@@ -2873,7 +2900,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="51" t="s">
         <v>136</v>
       </c>
@@ -2920,7 +2947,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="50" t="s">
         <v>146</v>
       </c>
@@ -2967,7 +2994,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="51" t="str">
         <f>Stories!A39</f>
         <v>US38</v>
@@ -3016,7 +3043,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="51" t="str">
         <f>Stories!A40</f>
         <v>US39</v>
@@ -3065,7 +3092,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="51" t="s">
         <v>141</v>
       </c>
@@ -3076,7 +3103,7 @@
         <v>188</v>
       </c>
       <c r="D8" s="50" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E8" s="50">
         <v>30</v>
@@ -3084,17 +3111,35 @@
       <c r="F8" s="50">
         <v>55</v>
       </c>
+      <c r="G8" s="50">
+        <v>23</v>
+      </c>
+      <c r="H8" s="50">
+        <v>30</v>
+      </c>
       <c r="I8" s="50" t="s">
         <v>226</v>
       </c>
       <c r="J8" s="50" t="s">
         <v>227</v>
       </c>
+      <c r="K8" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="L8" s="50" t="s">
+        <v>293</v>
+      </c>
       <c r="N8" s="50" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O8" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="P8" s="50" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="51" t="s">
         <v>144</v>
       </c>
@@ -3105,7 +3150,7 @@
         <v>188</v>
       </c>
       <c r="D9" s="50" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="E9" s="50">
         <v>27</v>
@@ -3113,82 +3158,100 @@
       <c r="F9" s="50">
         <v>40</v>
       </c>
+      <c r="G9" s="50">
+        <v>31</v>
+      </c>
+      <c r="H9" s="50">
+        <v>25</v>
+      </c>
       <c r="I9" s="50" t="s">
         <v>226</v>
       </c>
       <c r="J9" s="50" t="s">
         <v>227</v>
       </c>
+      <c r="K9" s="50" t="s">
+        <v>291</v>
+      </c>
+      <c r="L9" s="50" t="s">
+        <v>292</v>
+      </c>
       <c r="N9" s="50" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="O9" s="50" t="s">
+        <v>294</v>
+      </c>
+      <c r="P9" s="50" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="46" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" s="46"/>
     </row>
-    <row r="15" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="54" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B17" s="54" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="54" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="54" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="54"/>
     </row>
-    <row r="21" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B21" s="54"/>
     </row>
-    <row r="22" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B22" s="54"/>
     </row>
-    <row r="23" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B23" s="46" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B24" s="54" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B25" s="54" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="26" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B26" s="54" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="27" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B27" s="54"/>
     </row>
-    <row r="28" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B28" s="54"/>
     </row>
   </sheetData>
@@ -3206,12 +3269,12 @@
       <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.15234375" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="55" t="s">
         <v>29</v>
       </c>
@@ -3228,7 +3291,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="56">
         <v>1</v>
       </c>
@@ -3245,7 +3308,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="56">
         <v>1</v>
       </c>
@@ -3262,7 +3325,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="56">
         <v>1</v>
       </c>
@@ -3279,7 +3342,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56">
         <v>1</v>
       </c>
@@ -3296,7 +3359,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="56">
         <v>1</v>
       </c>
@@ -3313,7 +3376,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="56">
         <v>1</v>
       </c>
@@ -3330,7 +3393,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="56">
         <v>1</v>
       </c>
@@ -3347,7 +3410,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="56">
         <v>1</v>
       </c>
@@ -3364,7 +3427,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="56">
         <v>2</v>
       </c>
@@ -3381,7 +3444,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="56">
         <v>2</v>
       </c>
@@ -3398,7 +3461,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="56">
         <v>2</v>
       </c>
@@ -3415,7 +3478,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="56">
         <v>2</v>
       </c>
@@ -3432,7 +3495,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="56">
         <v>2</v>
       </c>
@@ -3449,7 +3512,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="56">
         <v>2</v>
       </c>
@@ -3466,7 +3529,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="56">
         <v>2</v>
       </c>
@@ -3483,7 +3546,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="56">
         <v>2</v>
       </c>
@@ -3500,7 +3563,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="56">
         <v>3</v>
       </c>
@@ -3517,7 +3580,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="56">
         <v>3</v>
       </c>
@@ -3534,7 +3597,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="56">
         <v>3</v>
       </c>
@@ -3551,7 +3614,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="56">
         <v>3</v>
       </c>
@@ -3568,7 +3631,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="56">
         <v>3</v>
       </c>
@@ -3585,7 +3648,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="56">
         <v>3</v>
       </c>
@@ -3602,7 +3665,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="56">
         <v>3</v>
       </c>
@@ -3619,7 +3682,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="56">
         <v>3</v>
       </c>
@@ -3636,7 +3699,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="56">
         <v>4</v>
       </c>
@@ -3653,7 +3716,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="27" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="56">
         <v>4</v>
       </c>
@@ -3670,7 +3733,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="56">
         <v>4</v>
       </c>
@@ -3687,7 +3750,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="56">
         <v>4</v>
       </c>
@@ -3704,7 +3767,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="56">
         <v>4</v>
       </c>
@@ -3721,7 +3784,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="56">
         <v>4</v>
       </c>
@@ -3738,7 +3801,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="56">
         <v>4</v>
       </c>
@@ -3755,7 +3818,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="56">
         <v>4</v>
       </c>
@@ -3772,10 +3835,10 @@
         <v>201</v>
       </c>
     </row>
-    <row r="34" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E34" s="30"/>
     </row>
-    <row r="35" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="E35" s="30"/>
     </row>
   </sheetData>
@@ -3791,7 +3854,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3802,50 +3865,50 @@
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="2"/>
-    <col min="2" max="2" width="9.4609375" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="4" t="s">
         <v>159</v>
       </c>
@@ -3868,7 +3931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -3884,7 +3947,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -3909,7 +3972,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>162</v>
       </c>
@@ -3935,7 +3998,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>163</v>
       </c>
@@ -3960,7 +4023,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>164</v>
       </c>
@@ -4000,27 +4063,27 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.69140625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.15234375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.84375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.4609375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.15234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.69140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.4609375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.15234375" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.4609375" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.5" style="15" customWidth="1"/>
     <col min="12" max="12" width="25" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.69140625" style="15"/>
-    <col min="15" max="15" width="9.15234375" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.75" style="15"/>
+    <col min="15" max="15" width="9.125" style="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.15234375" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.125" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -4067,7 +4130,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41" t="s">
         <v>112</v>
       </c>
@@ -4106,7 +4169,7 @@
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
     </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="41" t="s">
         <v>113</v>
       </c>
@@ -4141,7 +4204,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="41" t="s">
         <v>114</v>
       </c>
@@ -4176,7 +4239,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="41" t="s">
         <v>115</v>
       </c>
@@ -4211,7 +4274,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="41" t="s">
         <v>116</v>
       </c>
@@ -4246,7 +4309,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="41" t="s">
         <v>117</v>
       </c>
@@ -4281,7 +4344,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="41" t="s">
         <v>118</v>
       </c>
@@ -4320,7 +4383,7 @@
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
     </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="41" t="s">
         <v>119</v>
       </c>
@@ -4355,52 +4418,52 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D10" s="30"/>
       <c r="G10">
         <f>SUM(G2:G9)</f>
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="42" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="42" t="s">
         <v>215</v>
       </c>
@@ -4414,23 +4477,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="2"/>
-    <col min="2" max="2" width="16.69140625" customWidth="1"/>
-    <col min="3" max="3" width="21.69140625" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.875" style="2"/>
+    <col min="2" max="2" width="16.75" customWidth="1"/>
+    <col min="3" max="3" width="21.75" customWidth="1"/>
+    <col min="4" max="4" width="7.125" customWidth="1"/>
+    <col min="5" max="5" width="6.875" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4450,7 +4513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>42046</v>
       </c>
@@ -4470,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>42061</v>
       </c>
@@ -4492,7 +4555,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>42087</v>
       </c>
@@ -4513,7 +4576,7 @@
         <v>53.142857142857139</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>42101</v>
       </c>
@@ -4531,6 +4594,26 @@
       </c>
       <c r="F5" s="7">
         <v>59.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>42115</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>32</v>
+      </c>
+      <c r="D6">
+        <v>144</v>
+      </c>
+      <c r="E6">
+        <v>205</v>
+      </c>
+      <c r="F6" s="7">
+        <v>42.14</v>
       </c>
     </row>
   </sheetData>
@@ -4549,13 +4632,13 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.69140625" customWidth="1"/>
-    <col min="9" max="9" width="13.69140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.75" customWidth="1"/>
+    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -4584,7 +4667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="30" t="s">
         <v>120</v>
       </c>
@@ -4613,7 +4696,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="43" t="s">
         <v>121</v>
       </c>
@@ -4642,7 +4725,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>122</v>
       </c>
@@ -4671,7 +4754,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="30" t="s">
         <v>123</v>
       </c>
@@ -4700,7 +4783,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="30" t="s">
         <v>124</v>
       </c>
@@ -4729,7 +4812,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="30" t="s">
         <v>125</v>
       </c>
@@ -4758,7 +4841,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="30" t="s">
         <v>126</v>
       </c>
@@ -4787,7 +4870,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="30" t="s">
         <v>142</v>
       </c>
@@ -4816,68 +4899,68 @@
         <v>210</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="42" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B16" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="42" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="2:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B18" s="42" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="42" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="2:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B20" s="42" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="42"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="42" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="27" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B25" s="42" t="s">
         <v>224</v>
       </c>
@@ -4893,21 +4976,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView zoomScale="87" zoomScaleNormal="39" workbookViewId="0">
+    <sheetView topLeftCell="M1" zoomScale="87" zoomScaleNormal="39" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="19" style="60"/>
     <col min="2" max="2" width="27" style="60" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="49" style="60" customWidth="1"/>
     <col min="4" max="10" width="19" style="60"/>
-    <col min="11" max="11" width="44.69140625" style="60" customWidth="1"/>
+    <col min="11" max="11" width="44.75" style="60" customWidth="1"/>
     <col min="12" max="16384" width="19" style="60"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="58" t="s">
         <v>3</v>
       </c>
@@ -4954,7 +5037,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="61" t="s">
         <v>127</v>
       </c>
@@ -5001,7 +5084,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="61" t="s">
         <v>129</v>
       </c>
@@ -5048,7 +5131,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="61" t="s">
         <v>130</v>
       </c>
@@ -5095,7 +5178,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="61" t="s">
         <v>131</v>
       </c>
@@ -5142,7 +5225,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="61" t="s">
         <v>132</v>
       </c>
@@ -5189,7 +5272,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="61" t="s">
         <v>133</v>
       </c>
@@ -5236,7 +5319,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="61" t="s">
         <v>134</v>
       </c>
@@ -5283,7 +5366,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="61" t="s">
         <v>135</v>
       </c>
@@ -5330,70 +5413,70 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:15" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C14" s="59" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="61" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:15" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C15" s="62" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="59" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="62" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="62" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="62" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="20" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="62" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="21" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="62" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="22" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="62" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="23" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="62"/>
     </row>
-    <row r="24" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="59" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="25" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="62" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="26" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="62" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="27" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="62" t="s">
         <v>224</v>
       </c>
@@ -5410,16 +5493,16 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView topLeftCell="A28" zoomScale="86" zoomScaleNormal="100" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="28.15234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.4609375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
@@ -5430,7 +5513,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A2" s="18" t="s">
         <v>112</v>
       </c>
@@ -5445,7 +5528,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
         <v>113</v>
       </c>
@@ -5460,7 +5543,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
         <v>114</v>
       </c>
@@ -5475,7 +5558,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A5" s="26" t="s">
         <v>115</v>
       </c>
@@ -5490,7 +5573,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A6" s="26" t="s">
         <v>116</v>
       </c>
@@ -5501,7 +5584,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A7" s="24" t="s">
         <v>117</v>
       </c>
@@ -5512,7 +5595,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A8" s="24" t="s">
         <v>118</v>
       </c>
@@ -5523,7 +5606,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>119</v>
       </c>
@@ -5534,7 +5617,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
         <v>120</v>
       </c>
@@ -5545,7 +5628,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A11" s="32" t="s">
         <v>121</v>
       </c>
@@ -5556,7 +5639,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A12" s="32" t="s">
         <v>122</v>
       </c>
@@ -5567,7 +5650,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>123</v>
       </c>
@@ -5578,7 +5661,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="63" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>124</v>
       </c>
@@ -5589,7 +5672,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="30" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A15" s="24" t="s">
         <v>125</v>
       </c>
@@ -5600,7 +5683,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A16" s="24" t="s">
         <v>126</v>
       </c>
@@ -5611,7 +5694,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A17" s="35" t="s">
         <v>127</v>
       </c>
@@ -5622,7 +5705,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A18" s="30" t="s">
         <v>128</v>
       </c>
@@ -5633,7 +5716,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A19" s="35" t="s">
         <v>129</v>
       </c>
@@ -5644,7 +5727,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A20" s="37" t="s">
         <v>130</v>
       </c>
@@ -5655,7 +5738,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A21" s="37" t="s">
         <v>131</v>
       </c>
@@ -5666,7 +5749,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A22" s="24" t="s">
         <v>132</v>
       </c>
@@ -5677,7 +5760,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A23" s="24" t="s">
         <v>133</v>
       </c>
@@ -5688,7 +5771,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A24" s="18" t="s">
         <v>134</v>
       </c>
@@ -5699,7 +5782,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A25" s="18" t="s">
         <v>135</v>
       </c>
@@ -5710,7 +5793,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A26" s="37" t="s">
         <v>136</v>
       </c>
@@ -5721,7 +5804,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
       <c r="A27" s="41" t="s">
         <v>137</v>
       </c>
@@ -5732,7 +5815,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A28" s="18" t="s">
         <v>138</v>
       </c>
@@ -5743,7 +5826,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A29" s="18" t="s">
         <v>139</v>
       </c>
@@ -5754,7 +5837,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A30" s="30" t="s">
         <v>140</v>
       </c>
@@ -5765,7 +5848,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
       <c r="A31" s="30" t="s">
         <v>141</v>
       </c>
@@ -5776,7 +5859,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A32" s="39" t="s">
         <v>142</v>
       </c>
@@ -5787,7 +5870,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="23" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="22" t="s">
         <v>143</v>
       </c>
@@ -5798,7 +5881,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -5809,7 +5892,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>145</v>
       </c>
@@ -5820,7 +5903,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A36" s="26" t="s">
         <v>146</v>
       </c>
@@ -5831,7 +5914,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -5842,7 +5925,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -5853,7 +5936,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A39" s="39" t="s">
         <v>149</v>
       </c>
@@ -5864,7 +5947,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A40" s="39" t="s">
         <v>150</v>
       </c>
@@ -5875,7 +5958,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>151</v>
       </c>
@@ -5886,7 +5969,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -5897,7 +5980,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>153</v>
       </c>

--- a/SSW-555--Project 04-Sprint4/Team_DDGK_Report.xlsx
+++ b/SSW-555--Project 04-Sprint4/Team_DDGK_Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21425"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Stevens\CS 555\SSW-555-DDGK\SSW-555--Project 04-Sprint4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Krutarth\Desktop\SSW-555-DDGK-master\SSW-555--Project 04-Sprint4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9567FED-DEEA-462C-B77C-D643CA6D5326}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEC5346D-C366-46AD-81FD-15561DCC9DB4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="5" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="295">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -678,9 +678,6 @@
     <t>https://github.com/gopimiyani/SSW-555-DDGK</t>
   </si>
   <si>
-    <t>Not Started</t>
-  </si>
-  <si>
     <t>SSW-555_DDGK_Project3_Output</t>
   </si>
   <si>
@@ -753,9 +750,6 @@
     <t>Unit testing and frequent Integration testing</t>
   </si>
   <si>
-    <t>Not Completed</t>
-  </si>
-  <si>
     <t>UserStories.py</t>
   </si>
   <si>
@@ -861,12 +855,6 @@
     <t>Ww had to change the user story because we found difficulty adding parent child marriage scenario in gedcom so we changed user story to 16.</t>
   </si>
   <si>
-    <t>754-768</t>
-  </si>
-  <si>
-    <t>775-786</t>
-  </si>
-  <si>
     <t>﻿US25_Unique_firstnames_families</t>
   </si>
   <si>
@@ -897,12 +885,6 @@
     <t>US38_List_upcoming_birthdays</t>
   </si>
   <si>
-    <t>762-778</t>
-  </si>
-  <si>
-    <t>782-804</t>
-  </si>
-  <si>
     <t>test_US38</t>
   </si>
   <si>
@@ -927,12 +909,6 @@
     <t>US36_List_recent_deaths</t>
   </si>
   <si>
-    <t>809-817</t>
-  </si>
-  <si>
-    <t>822-831</t>
-  </si>
-  <si>
     <t>test_US27</t>
   </si>
   <si>
@@ -951,12 +927,6 @@
     <t>US33_List_orphans</t>
   </si>
   <si>
-    <t>863-894</t>
-  </si>
-  <si>
-    <t>836-859</t>
-  </si>
-  <si>
     <t>test_US30</t>
   </si>
   <si>
@@ -964,6 +934,30 @@
   </si>
   <si>
     <t>246-251</t>
+  </si>
+  <si>
+    <t>994-1027</t>
+  </si>
+  <si>
+    <t>968-992</t>
+  </si>
+  <si>
+    <t>950-964</t>
+  </si>
+  <si>
+    <t>929-947</t>
+  </si>
+  <si>
+    <t>900-926</t>
+  </si>
+  <si>
+    <t>876-896</t>
+  </si>
+  <si>
+    <t>856-872</t>
+  </si>
+  <si>
+    <t>832-850</t>
   </si>
 </sst>
 </file>
@@ -974,7 +968,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="35" x14ac:knownFonts="1">
+  <fonts count="36" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -1183,6 +1177,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1389,27 +1388,10 @@
     <xf numFmtId="49" fontId="25" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
     <xf numFmtId="49" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1439,6 +1421,25 @@
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="66">
@@ -2615,20 +2616,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView zoomScale="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.765625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42.875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.765625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.84375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
@@ -2645,7 +2646,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>187</v>
       </c>
@@ -2662,7 +2663,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>187</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>186</v>
       </c>
@@ -2696,7 +2697,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>187</v>
       </c>
@@ -2710,10 +2711,10 @@
         <v>185</v>
       </c>
       <c r="E6" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D9" s="4" t="s">
         <v>34</v>
       </c>
@@ -2740,519 +2741,518 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="56" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+    <sheetView topLeftCell="E1" zoomScale="49" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="28" defaultRowHeight="66.95" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="28" defaultRowHeight="67" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="28" style="50"/>
-    <col min="2" max="2" width="46.25" style="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="37.125" style="50" bestFit="1" customWidth="1"/>
-    <col min="4" max="10" width="28" style="50"/>
-    <col min="11" max="11" width="57.875" style="50" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="28" style="50"/>
+    <col min="1" max="1" width="28" style="46"/>
+    <col min="2" max="2" width="46.23046875" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="37.15234375" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="10" width="28" style="46"/>
+    <col min="11" max="11" width="57.84375" style="46" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="28" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:15" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="45" t="s">
+      <c r="D1" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="47" t="s">
+      <c r="E1" s="58" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="58" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="47" t="s">
+      <c r="G1" s="58" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="47" t="s">
+      <c r="H1" s="58" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="47" t="s">
+      <c r="I1" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="48" t="s">
+      <c r="J1" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="48" t="s">
+      <c r="K1" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="L1" s="48" t="s">
+      <c r="L1" s="58" t="s">
         <v>180</v>
       </c>
-      <c r="M1" s="49"/>
-      <c r="N1" s="48" t="s">
+      <c r="M1" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="N1" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="O1" s="58" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="51" t="s">
+    <row r="2" spans="1:15" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="60" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="60" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="D2" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E2" s="50">
+      <c r="D2" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="E2" s="62">
         <v>25</v>
       </c>
-      <c r="F2" s="50">
+      <c r="F2" s="62">
         <v>30</v>
       </c>
-      <c r="G2" s="50">
+      <c r="G2" s="62">
         <v>12</v>
       </c>
-      <c r="H2" s="50">
+      <c r="H2" s="62">
         <v>25</v>
       </c>
-      <c r="I2" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="J2" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="K2" s="50" t="s">
-        <v>282</v>
-      </c>
-      <c r="L2" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="N2" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="O2" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="P2" s="50" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="51" t="str">
+      <c r="I2" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="J2" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="K2" s="62" t="s">
+        <v>276</v>
+      </c>
+      <c r="L2" s="62" t="s">
+        <v>289</v>
+      </c>
+      <c r="M2" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="N2" s="62" t="s">
+        <v>278</v>
+      </c>
+      <c r="O2" s="62" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="60" t="str">
         <f>Stories!A37</f>
         <v>US36</v>
       </c>
-      <c r="B3" s="51" t="str">
+      <c r="B3" s="60" t="str">
         <f>Stories!B37</f>
         <v>List recent deaths</v>
       </c>
-      <c r="C3" s="52" t="s">
+      <c r="C3" s="61" t="s">
         <v>190</v>
       </c>
-      <c r="D3" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E3" s="50">
+      <c r="D3" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="E3" s="62">
         <v>45</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="62">
         <v>55</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="62">
         <v>13</v>
       </c>
-      <c r="H3" s="50">
+      <c r="H3" s="62">
         <v>20</v>
       </c>
-      <c r="I3" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="J3" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="K3" s="50" t="s">
-        <v>283</v>
-      </c>
-      <c r="L3" s="50" t="s">
-        <v>285</v>
-      </c>
-      <c r="N3" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="O3" s="50" t="s">
-        <v>287</v>
-      </c>
-      <c r="P3" s="50" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51" t="s">
+      <c r="I3" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="K3" s="62" t="s">
+        <v>277</v>
+      </c>
+      <c r="L3" s="62" t="s">
+        <v>290</v>
+      </c>
+      <c r="M3" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="N3" s="62" t="s">
+        <v>279</v>
+      </c>
+      <c r="O3" s="62" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="60" t="s">
         <v>136</v>
       </c>
-      <c r="B4" s="51" t="s">
+      <c r="B4" s="60" t="s">
         <v>92</v>
       </c>
-      <c r="C4" s="52" t="s">
+      <c r="C4" s="61" t="s">
         <v>195</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E4" s="50">
+      <c r="D4" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="E4" s="62">
         <v>30</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="62">
         <v>50</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="62">
         <v>14</v>
       </c>
-      <c r="H4" s="50">
+      <c r="H4" s="62">
         <v>40</v>
       </c>
-      <c r="I4" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="J4" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="K4" s="50" t="s">
-        <v>264</v>
-      </c>
-      <c r="L4" s="50" t="s">
+      <c r="I4" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="J4" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" s="62" t="s">
+        <v>260</v>
+      </c>
+      <c r="L4" s="62" t="s">
+        <v>294</v>
+      </c>
+      <c r="M4" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="N4" s="62" t="s">
         <v>262</v>
       </c>
-      <c r="N4" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="O4" s="50" t="s">
-        <v>266</v>
-      </c>
-      <c r="P4" s="50" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="O4" s="62" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="62" t="s">
         <v>146</v>
       </c>
-      <c r="B5" s="50" t="s">
+      <c r="B5" s="62" t="s">
         <v>101</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="63" t="s">
         <v>195</v>
       </c>
-      <c r="D5" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E5" s="50">
+      <c r="D5" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="62">
         <v>25</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="62">
         <v>45</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="62">
         <v>11</v>
       </c>
-      <c r="H5" s="50">
+      <c r="H5" s="62">
         <v>30</v>
       </c>
-      <c r="I5" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="J5" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="K5" s="50" t="s">
-        <v>265</v>
-      </c>
-      <c r="L5" s="50" t="s">
+      <c r="I5" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="J5" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="K5" s="62" t="s">
+        <v>261</v>
+      </c>
+      <c r="L5" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="M5" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="N5" s="62" t="s">
         <v>263</v>
       </c>
-      <c r="N5" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="O5" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="P5" s="50" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="51" t="str">
+      <c r="O5" s="62" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="60" t="str">
         <f>Stories!A39</f>
         <v>US38</v>
       </c>
-      <c r="B6" s="51" t="str">
+      <c r="B6" s="60" t="str">
         <f>Stories!B39</f>
         <v>List upcoming birthdays</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E6" s="50">
+      <c r="D6" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" s="62">
         <v>20</v>
       </c>
-      <c r="F6" s="50">
+      <c r="F6" s="62">
         <v>50</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="62">
         <v>18</v>
       </c>
-      <c r="H6" s="50">
+      <c r="H6" s="62">
         <v>15</v>
       </c>
-      <c r="I6" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="J6" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="K6" s="50" t="s">
-        <v>273</v>
-      </c>
-      <c r="L6" s="50" t="s">
-        <v>274</v>
-      </c>
-      <c r="N6" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="O6" s="50" t="s">
-        <v>276</v>
-      </c>
-      <c r="P6" s="50" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="51" t="str">
+      <c r="I6" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="K6" s="62" t="s">
+        <v>269</v>
+      </c>
+      <c r="L6" s="62" t="s">
+        <v>292</v>
+      </c>
+      <c r="M6" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="N6" s="62" t="s">
+        <v>270</v>
+      </c>
+      <c r="O6" s="62" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="60" t="str">
         <f>Stories!A40</f>
         <v>US39</v>
       </c>
-      <c r="B7" s="51" t="str">
+      <c r="B7" s="60" t="str">
         <f>Stories!B40</f>
         <v>List upcoming anniversaries</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="61" t="s">
         <v>197</v>
       </c>
-      <c r="D7" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" s="50">
+      <c r="D7" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="E7" s="62">
         <v>25</v>
       </c>
-      <c r="F7" s="50">
+      <c r="F7" s="62">
         <v>45</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="62">
         <v>22</v>
       </c>
-      <c r="H7" s="50">
+      <c r="H7" s="62">
         <v>20</v>
       </c>
-      <c r="I7" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="J7" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="K7" s="50" t="s">
-        <v>272</v>
-      </c>
-      <c r="L7" s="50" t="s">
-        <v>275</v>
-      </c>
-      <c r="N7" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="O7" s="50" t="s">
-        <v>277</v>
-      </c>
-      <c r="P7" s="50" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="51" t="s">
+      <c r="I7" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="K7" s="62" t="s">
+        <v>268</v>
+      </c>
+      <c r="L7" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="M7" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="N7" s="62" t="s">
+        <v>271</v>
+      </c>
+      <c r="O7" s="62" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="60" t="s">
         <v>141</v>
       </c>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="60" t="s">
         <v>97</v>
       </c>
-      <c r="C8" s="52" t="s">
+      <c r="C8" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="D8" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E8" s="50">
+      <c r="D8" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="E8" s="62">
         <v>30</v>
       </c>
-      <c r="F8" s="50">
+      <c r="F8" s="62">
         <v>55</v>
       </c>
-      <c r="G8" s="50">
+      <c r="G8" s="62">
         <v>23</v>
       </c>
-      <c r="H8" s="50">
+      <c r="H8" s="62">
         <v>30</v>
       </c>
-      <c r="I8" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="J8" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="K8" s="50" t="s">
-        <v>290</v>
-      </c>
-      <c r="L8" s="50" t="s">
-        <v>293</v>
-      </c>
-      <c r="N8" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="O8" s="50" t="s">
-        <v>294</v>
-      </c>
-      <c r="P8" s="50" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="51" t="s">
+      <c r="I8" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="J8" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="K8" s="62" t="s">
+        <v>282</v>
+      </c>
+      <c r="L8" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="M8" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="N8" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="O8" s="62" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="60" t="s">
         <v>144</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="60" t="s">
         <v>100</v>
       </c>
-      <c r="C9" s="52" t="s">
+      <c r="C9" s="61" t="s">
         <v>188</v>
       </c>
-      <c r="D9" s="50" t="s">
-        <v>210</v>
-      </c>
-      <c r="E9" s="50">
+      <c r="D9" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" s="62">
         <v>27</v>
       </c>
-      <c r="F9" s="50">
+      <c r="F9" s="62">
         <v>40</v>
       </c>
-      <c r="G9" s="50">
+      <c r="G9" s="62">
         <v>31</v>
       </c>
-      <c r="H9" s="50">
+      <c r="H9" s="62">
         <v>25</v>
       </c>
-      <c r="I9" s="50" t="s">
-        <v>226</v>
-      </c>
-      <c r="J9" s="50" t="s">
-        <v>227</v>
-      </c>
-      <c r="K9" s="50" t="s">
-        <v>291</v>
-      </c>
-      <c r="L9" s="50" t="s">
-        <v>292</v>
-      </c>
-      <c r="N9" s="50" t="s">
-        <v>232</v>
-      </c>
-      <c r="O9" s="50" t="s">
-        <v>294</v>
-      </c>
-      <c r="P9" s="50" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="46" t="s">
+      <c r="I9" s="62" t="s">
+        <v>209</v>
+      </c>
+      <c r="J9" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="K9" s="62" t="s">
+        <v>283</v>
+      </c>
+      <c r="L9" s="62" t="s">
+        <v>287</v>
+      </c>
+      <c r="M9" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="N9" s="62" t="s">
+        <v>284</v>
+      </c>
+      <c r="O9" s="62" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="46"/>
-    </row>
-    <row r="15" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="46" t="s">
+    <row r="14" spans="1:15" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="45"/>
+    </row>
+    <row r="15" spans="1:15" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="45" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:16" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="54" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="54" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="54" t="s">
+    <row r="16" spans="1:15" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="47" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="47" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="47" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="47" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="47"/>
+    </row>
+    <row r="21" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="47"/>
+    </row>
+    <row r="22" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="47"/>
+    </row>
+    <row r="23" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="45" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="47" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="47" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B26" s="47" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="54" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="54"/>
-    </row>
-    <row r="21" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="54"/>
-    </row>
-    <row r="22" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="54"/>
-    </row>
-    <row r="23" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B23" s="46" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B24" s="54" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="54" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="26" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B26" s="54" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="27" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="54"/>
-    </row>
-    <row r="28" spans="2:2" ht="66.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B28" s="54"/>
+    <row r="27" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="47"/>
+    </row>
+    <row r="28" spans="2:2" ht="67" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B28" s="47"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3265,580 +3265,580 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView zoomScale="87" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A34" zoomScale="87" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.15234375" defaultRowHeight="19" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="29" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="4" customFormat="1" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="48" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="48" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56">
+    <row r="2" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="49">
         <v>1</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="49" t="s">
         <v>112</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="49" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="E2" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56">
+      <c r="E2" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="49">
         <v>1</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="49" t="s">
         <v>113</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="49" t="s">
         <v>68</v>
       </c>
-      <c r="D3" s="56" t="s">
+      <c r="D3" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="E3" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56">
+      <c r="E3" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="49">
         <v>1</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="49" t="s">
         <v>114</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="49" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="56" t="s">
+      <c r="D4" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="E4" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="56">
+      <c r="E4" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="49">
         <v>1</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="49" t="s">
         <v>115</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="49" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="56" t="s">
+      <c r="D5" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="E5" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56">
+      <c r="E5" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="49">
         <v>1</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="49" t="s">
         <v>116</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="49" t="s">
         <v>70</v>
       </c>
-      <c r="D6" s="56" t="s">
+      <c r="D6" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="E6" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56">
+      <c r="E6" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="49">
         <v>1</v>
       </c>
-      <c r="B7" s="56" t="s">
+      <c r="B7" s="49" t="s">
         <v>117</v>
       </c>
-      <c r="C7" s="56" t="s">
+      <c r="C7" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="D7" s="56" t="s">
+      <c r="D7" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="E7" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="56">
+      <c r="E7" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="49">
         <v>1</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="49" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="56" t="s">
+      <c r="C8" s="49" t="s">
         <v>72</v>
       </c>
-      <c r="D8" s="56" t="s">
+      <c r="D8" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="E8" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="56">
+      <c r="E8" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="49">
         <v>1</v>
       </c>
-      <c r="B9" s="56" t="s">
+      <c r="B9" s="49" t="s">
         <v>119</v>
       </c>
-      <c r="C9" s="56" t="s">
+      <c r="C9" s="49" t="s">
         <v>155</v>
       </c>
-      <c r="D9" s="56" t="s">
+      <c r="D9" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="E9" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="56">
+      <c r="E9" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="49">
         <v>2</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="49" t="s">
         <v>120</v>
       </c>
-      <c r="C10" s="56" t="s">
+      <c r="C10" s="49" t="s">
         <v>74</v>
       </c>
-      <c r="D10" s="56" t="s">
+      <c r="D10" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="E10" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="56">
+      <c r="E10" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="49">
         <v>2</v>
       </c>
-      <c r="B11" s="57" t="s">
+      <c r="B11" s="50" t="s">
         <v>121</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="C11" s="50" t="s">
         <v>76</v>
       </c>
-      <c r="D11" s="56" t="s">
+      <c r="D11" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="E11" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="56">
+      <c r="E11" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="49">
         <v>2</v>
       </c>
-      <c r="B12" s="57" t="s">
+      <c r="B12" s="50" t="s">
         <v>122</v>
       </c>
-      <c r="C12" s="57" t="s">
+      <c r="C12" s="50" t="s">
         <v>77</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="E12" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="56">
+      <c r="E12" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="49">
         <v>2</v>
       </c>
-      <c r="B13" s="56" t="s">
+      <c r="B13" s="49" t="s">
         <v>123</v>
       </c>
-      <c r="C13" s="56" t="s">
+      <c r="C13" s="49" t="s">
         <v>78</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="E13" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="56">
+      <c r="E13" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="49">
         <v>2</v>
       </c>
-      <c r="B14" s="56" t="s">
+      <c r="B14" s="49" t="s">
         <v>124</v>
       </c>
-      <c r="C14" s="56" t="s">
+      <c r="C14" s="49" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="E14" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="56">
+      <c r="E14" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="49">
         <v>2</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="B15" s="49" t="s">
         <v>125</v>
       </c>
-      <c r="C15" s="56" t="s">
+      <c r="C15" s="49" t="s">
         <v>168</v>
       </c>
-      <c r="D15" s="56" t="s">
+      <c r="D15" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="E15" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="56">
+      <c r="E15" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="49">
         <v>2</v>
       </c>
-      <c r="B16" s="56" t="s">
+      <c r="B16" s="49" t="s">
         <v>126</v>
       </c>
-      <c r="C16" s="56" t="s">
+      <c r="C16" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="D16" s="56" t="s">
+      <c r="D16" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="E16" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="56">
+      <c r="E16" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="49">
         <v>2</v>
       </c>
-      <c r="B17" s="56" t="s">
+      <c r="B17" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="56" t="s">
+      <c r="C17" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D17" s="56" t="s">
+      <c r="D17" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="E17" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="56">
+      <c r="E17" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="49">
         <v>3</v>
       </c>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C18" s="56" t="s">
+      <c r="C18" s="49" t="s">
         <v>82</v>
       </c>
-      <c r="D18" s="56" t="s">
+      <c r="D18" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="E18" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="56">
+      <c r="E18" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="49">
         <v>3</v>
       </c>
-      <c r="B19" s="56" t="s">
+      <c r="B19" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="C19" s="56" t="s">
+      <c r="C19" s="49" t="s">
         <v>83</v>
       </c>
-      <c r="D19" s="56" t="s">
+      <c r="D19" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="E19" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="56">
+      <c r="E19" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="49">
         <v>3</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="C20" s="56" t="s">
+      <c r="C20" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="D20" s="56" t="s">
+      <c r="D20" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="E20" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="56">
+      <c r="E20" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="49">
         <v>3</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="B21" s="49" t="s">
         <v>131</v>
       </c>
-      <c r="C21" s="56" t="s">
+      <c r="C21" s="49" t="s">
         <v>85</v>
       </c>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="E21" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="56">
+      <c r="E21" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="49">
         <v>3</v>
       </c>
-      <c r="B22" s="56" t="s">
+      <c r="B22" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="56" t="s">
+      <c r="C22" s="49" t="s">
         <v>86</v>
       </c>
-      <c r="D22" s="56" t="s">
+      <c r="D22" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="E22" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="56">
+      <c r="E22" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="49">
         <v>3</v>
       </c>
-      <c r="B23" s="56" t="s">
+      <c r="B23" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="56" t="s">
+      <c r="C23" s="49" t="s">
         <v>89</v>
       </c>
-      <c r="D23" s="56" t="s">
+      <c r="D23" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="E23" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="56">
+      <c r="E23" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="49">
         <v>3</v>
       </c>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="C24" s="56" t="s">
+      <c r="C24" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="D24" s="56" t="s">
+      <c r="D24" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="E24" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="56">
+      <c r="E24" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="49">
         <v>3</v>
       </c>
-      <c r="B25" s="56" t="s">
+      <c r="B25" s="49" t="s">
         <v>135</v>
       </c>
-      <c r="C25" s="56" t="s">
+      <c r="C25" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="D25" s="56" t="s">
+      <c r="D25" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="E25" s="56" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="56">
+      <c r="E25" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="49">
         <v>4</v>
       </c>
-      <c r="B26" s="56" t="s">
+      <c r="B26" s="49" t="s">
         <v>136</v>
       </c>
-      <c r="C26" s="56" t="s">
+      <c r="C26" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="D26" s="56" t="s">
+      <c r="D26" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="E26" s="56" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="56">
+      <c r="E26" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="49">
         <v>4</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="B27" s="49" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="56" t="s">
+      <c r="C27" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="56" t="s">
+      <c r="D27" s="49" t="s">
         <v>195</v>
       </c>
-      <c r="E27" s="56" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="56">
+      <c r="E27" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="49">
         <v>4</v>
       </c>
-      <c r="B28" s="56" t="s">
+      <c r="B28" s="49" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="56" t="s">
+      <c r="C28" s="49" t="s">
         <v>94</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="E28" s="56" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="56">
+      <c r="E28" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="49">
         <v>4</v>
       </c>
-      <c r="B29" s="56" t="s">
+      <c r="B29" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="56" t="s">
+      <c r="C29" s="49" t="s">
         <v>95</v>
       </c>
-      <c r="D29" s="56" t="s">
+      <c r="D29" s="49" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="56" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="56">
+      <c r="E29" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="49">
         <v>4</v>
       </c>
-      <c r="B30" s="56" t="s">
+      <c r="B30" s="49" t="s">
         <v>140</v>
       </c>
-      <c r="C30" s="56" t="s">
+      <c r="C30" s="49" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="56" t="s">
+      <c r="D30" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="E30" s="56" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="56">
+      <c r="E30" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="49">
         <v>4</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="B31" s="49" t="s">
         <v>141</v>
       </c>
-      <c r="C31" s="56" t="s">
+      <c r="C31" s="49" t="s">
         <v>97</v>
       </c>
-      <c r="D31" s="56" t="s">
+      <c r="D31" s="49" t="s">
         <v>197</v>
       </c>
-      <c r="E31" s="56" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="56">
+      <c r="E31" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="49">
         <v>4</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="B32" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="C32" s="56" t="s">
+      <c r="C32" s="49" t="s">
         <v>98</v>
       </c>
-      <c r="D32" s="56" t="s">
+      <c r="D32" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="E32" s="56" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="56">
+      <c r="E32" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="49">
         <v>4</v>
       </c>
-      <c r="B33" s="56" t="s">
+      <c r="B33" s="49" t="s">
         <v>143</v>
       </c>
-      <c r="C33" s="56" t="s">
+      <c r="C33" s="49" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="49" t="s">
         <v>188</v>
       </c>
-      <c r="E33" s="56" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="49" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E34" s="30"/>
     </row>
-    <row r="35" spans="1:5" ht="18.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" ht="19" customHeight="1" x14ac:dyDescent="0.3">
       <c r="E35" s="30"/>
     </row>
   </sheetData>
@@ -3854,7 +3854,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3864,51 +3864,51 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="2"/>
+    <col min="2" max="2" width="9.4609375" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="s">
         <v>159</v>
       </c>
@@ -3931,7 +3931,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -3947,7 +3947,7 @@
       <c r="F15" s="12"/>
       <c r="G15" s="7"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -3972,7 +3972,7 @@
         <v>87.5</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>162</v>
       </c>
@@ -3987,7 +3987,7 @@
         <v>8</v>
       </c>
       <c r="E17" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F17" s="13">
         <f>-H20</f>
@@ -3998,7 +3998,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>163</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>8</v>
       </c>
       <c r="E18" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F18" s="13">
         <v>0</v>
@@ -4023,7 +4023,7 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>164</v>
       </c>
@@ -4038,7 +4038,7 @@
         <v>8</v>
       </c>
       <c r="E19" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F19" s="13">
         <v>0</v>
@@ -4063,27 +4063,27 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.75" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.765625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.15234375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="30.5" style="15" customWidth="1"/>
+    <col min="4" max="4" width="10.84375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.4609375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.15234375" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="30.4609375" style="15" customWidth="1"/>
     <col min="12" max="12" width="25" style="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="13" style="15" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.75" style="15"/>
-    <col min="15" max="15" width="9.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.765625" style="15"/>
+    <col min="15" max="15" width="9.15234375" style="15" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14" style="15" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.125" style="15" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="10.15234375" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>16</v>
       </c>
       <c r="I1" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K1" s="14" t="s">
         <v>176</v>
@@ -4130,7 +4130,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
         <v>112</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>190</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -4156,20 +4156,20 @@
         <v>35</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K2" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L2" s="16" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M2" s="16"/>
       <c r="O2" s="16"/>
       <c r="P2" s="16"/>
       <c r="Q2" s="16"/>
     </row>
-    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>113</v>
       </c>
@@ -4180,7 +4180,7 @@
         <v>197</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -4195,16 +4195,16 @@
         <v>25</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K3" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L3" s="16" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="41" t="s">
         <v>114</v>
       </c>
@@ -4215,7 +4215,7 @@
         <v>197</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -4230,16 +4230,16 @@
         <v>45</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K4" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L4" s="16" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>115</v>
       </c>
@@ -4250,7 +4250,7 @@
         <v>195</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -4265,16 +4265,16 @@
         <v>25</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K5" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L5" s="16" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="41" t="s">
         <v>116</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>195</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E6">
         <v>25</v>
@@ -4300,16 +4300,16 @@
         <v>30</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L6" s="16" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="41" t="s">
         <v>117</v>
       </c>
@@ -4320,7 +4320,7 @@
         <v>188</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -4335,16 +4335,16 @@
         <v>30</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K7" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L7" s="16" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
         <v>118</v>
       </c>
@@ -4355,7 +4355,7 @@
         <v>188</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -4370,20 +4370,20 @@
         <v>30</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K8" s="16" t="s">
+        <v>201</v>
+      </c>
+      <c r="L8" s="16" t="s">
         <v>202</v>
-      </c>
-      <c r="L8" s="16" t="s">
-        <v>203</v>
       </c>
       <c r="M8" s="16"/>
       <c r="O8" s="16"/>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
     </row>
-    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
         <v>119</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>190</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E9">
         <v>25</v>
@@ -4409,63 +4409,63 @@
         <v>45</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="K9" s="16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L9" s="16" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" s="30"/>
       <c r="G10">
         <f>SUM(G2:G9)</f>
         <v>165</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="5"/>
     </row>
-    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="42" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="19" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="42" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="42" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="42" t="s">
         <v>214</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="42" t="s">
-        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -4479,21 +4479,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A4" zoomScale="106" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="2"/>
-    <col min="2" max="2" width="16.75" customWidth="1"/>
-    <col min="3" max="3" width="21.75" customWidth="1"/>
-    <col min="4" max="4" width="7.125" customWidth="1"/>
-    <col min="5" max="5" width="6.875" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="2"/>
+    <col min="2" max="2" width="16.765625" customWidth="1"/>
+    <col min="3" max="3" width="21.765625" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>42046</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>42061</v>
       </c>
@@ -4555,7 +4555,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>42087</v>
       </c>
@@ -4566,17 +4566,17 @@
         <v>16</v>
       </c>
       <c r="D4">
-        <v>475</v>
+        <v>325</v>
       </c>
       <c r="E4">
         <v>350</v>
       </c>
       <c r="F4" s="7">
         <f>(D4-D3)/E4*60</f>
-        <v>53.142857142857139</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+        <v>27.428571428571427</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>42101</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>24</v>
       </c>
       <c r="D5">
-        <v>278</v>
+        <v>427</v>
       </c>
       <c r="E5">
         <v>200</v>
@@ -4596,7 +4596,7 @@
         <v>59.1</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>42115</v>
       </c>
@@ -4607,7 +4607,7 @@
         <v>32</v>
       </c>
       <c r="D6">
-        <v>144</v>
+        <v>571</v>
       </c>
       <c r="E6">
         <v>205</v>
@@ -4629,16 +4629,16 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.75" customWidth="1"/>
-    <col min="9" max="9" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.765625" customWidth="1"/>
+    <col min="9" max="9" width="13.765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="30" t="s">
         <v>120</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>197</v>
       </c>
       <c r="D2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E2">
         <v>15</v>
@@ -4693,10 +4693,10 @@
         <v>35</v>
       </c>
       <c r="I2" s="30" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="43" t="s">
         <v>121</v>
       </c>
@@ -4707,7 +4707,7 @@
         <v>190</v>
       </c>
       <c r="D3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -4722,10 +4722,10 @@
         <v>50</v>
       </c>
       <c r="I3" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="43" t="s">
         <v>122</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>190</v>
       </c>
       <c r="D4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E4">
         <v>20</v>
@@ -4751,10 +4751,10 @@
         <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
         <v>123</v>
       </c>
@@ -4765,7 +4765,7 @@
         <v>195</v>
       </c>
       <c r="D5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E5">
         <v>25</v>
@@ -4780,10 +4780,10 @@
         <v>55</v>
       </c>
       <c r="I5" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>124</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>195</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E6">
         <v>25</v>
@@ -4809,10 +4809,10 @@
         <v>45</v>
       </c>
       <c r="I6" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>125</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>188</v>
       </c>
       <c r="D7" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E7">
         <v>25</v>
@@ -4838,10 +4838,10 @@
         <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>126</v>
       </c>
@@ -4852,7 +4852,7 @@
         <v>188</v>
       </c>
       <c r="D8" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E8">
         <v>30</v>
@@ -4867,10 +4867,10 @@
         <v>25</v>
       </c>
       <c r="I8" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
         <v>142</v>
       </c>
@@ -4881,7 +4881,7 @@
         <v>197</v>
       </c>
       <c r="D9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E9">
         <v>25</v>
@@ -4896,73 +4896,79 @@
         <v>19</v>
       </c>
       <c r="I9" s="30" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="G10" s="57">
+        <f>SUM(G2:G9)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B12" s="5" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B13" s="5"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B14" s="5" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="27" x14ac:dyDescent="0.3">
       <c r="B15" s="42" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="B16" s="42" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="42" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="42" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2" ht="27" x14ac:dyDescent="0.3">
       <c r="B18" s="42" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B19" s="42" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" ht="27" x14ac:dyDescent="0.3">
       <c r="B20" s="42" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B21" s="42"/>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B22" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B23" s="42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="42" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B24" s="42" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2" ht="27" x14ac:dyDescent="0.3">
       <c r="B25" s="42" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>
@@ -4976,509 +4982,509 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:O27"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" zoomScale="87" zoomScaleNormal="39" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView topLeftCell="B1" zoomScale="87" zoomScaleNormal="39" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="19" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="19" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19" style="60"/>
-    <col min="2" max="2" width="27" style="60" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49" style="60" customWidth="1"/>
-    <col min="4" max="10" width="19" style="60"/>
-    <col min="11" max="11" width="44.75" style="60" customWidth="1"/>
-    <col min="12" max="16384" width="19" style="60"/>
+    <col min="1" max="1" width="19" style="53"/>
+    <col min="2" max="2" width="27" style="53" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49" style="53" customWidth="1"/>
+    <col min="4" max="10" width="19" style="53"/>
+    <col min="11" max="11" width="44.765625" style="53" customWidth="1"/>
+    <col min="12" max="16384" width="19" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="58" t="s">
+    <row r="1" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="51" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="58" t="s">
+      <c r="F1" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="58" t="s">
+      <c r="H1" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="58" t="s">
+      <c r="I1" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="51" t="s">
         <v>176</v>
       </c>
-      <c r="K1" s="58" t="s">
+      <c r="K1" s="51" t="s">
         <v>179</v>
       </c>
-      <c r="L1" s="58" t="s">
+      <c r="L1" s="51" t="s">
         <v>180</v>
       </c>
-      <c r="M1" s="58" t="s">
+      <c r="M1" s="51" t="s">
         <v>178</v>
       </c>
-      <c r="N1" s="58" t="s">
+      <c r="N1" s="51" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="58" t="s">
+      <c r="O1" s="51" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="61" t="s">
+    <row r="2" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="54" t="s">
         <v>127</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="54" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="61" t="s">
+      <c r="C2" s="54" t="s">
         <v>197</v>
       </c>
-      <c r="D2" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="E2" s="60">
+      <c r="D2" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E2" s="53">
         <v>30</v>
       </c>
-      <c r="F2" s="60">
+      <c r="F2" s="53">
         <v>70</v>
       </c>
-      <c r="G2" s="60">
+      <c r="G2" s="53">
         <v>35</v>
       </c>
-      <c r="H2" s="60">
+      <c r="H2" s="53">
         <v>25</v>
       </c>
-      <c r="I2" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="J2" s="60" t="s">
+      <c r="I2" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="J2" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K2" s="53" t="s">
+        <v>257</v>
+      </c>
+      <c r="L2" s="53" t="s">
+        <v>245</v>
+      </c>
+      <c r="M2" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="N2" s="53" t="s">
+        <v>258</v>
+      </c>
+      <c r="O2" s="53" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="54" t="s">
+        <v>129</v>
+      </c>
+      <c r="B3" s="54" t="s">
+        <v>83</v>
+      </c>
+      <c r="C3" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E3" s="53">
+        <v>35</v>
+      </c>
+      <c r="F3" s="53">
+        <v>55</v>
+      </c>
+      <c r="G3" s="53">
+        <v>24</v>
+      </c>
+      <c r="H3" s="53">
+        <v>45</v>
+      </c>
+      <c r="I3" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="J3" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>244</v>
+      </c>
+      <c r="L3" s="53" t="s">
+        <v>246</v>
+      </c>
+      <c r="M3" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="N3" s="53" t="s">
+        <v>249</v>
+      </c>
+      <c r="O3" s="53" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="54" t="s">
+        <v>130</v>
+      </c>
+      <c r="B4" s="54" t="s">
+        <v>84</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E4" s="53">
+        <v>25</v>
+      </c>
+      <c r="F4" s="53">
+        <v>60</v>
+      </c>
+      <c r="G4" s="53">
+        <v>32</v>
+      </c>
+      <c r="H4" s="53">
+        <v>65</v>
+      </c>
+      <c r="I4" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="J4" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" s="53" t="s">
+        <v>226</v>
+      </c>
+      <c r="L4" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="M4" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="N4" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="O4" s="53" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="54" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>195</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E5" s="53">
+        <v>30</v>
+      </c>
+      <c r="F5" s="53">
+        <v>45</v>
+      </c>
+      <c r="G5" s="53">
+        <v>24</v>
+      </c>
+      <c r="H5" s="53">
+        <v>40</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="J5" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K5" s="53" t="s">
         <v>227</v>
       </c>
-      <c r="K2" s="60" t="s">
+      <c r="L5" s="53" t="s">
+        <v>228</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="N5" s="53" t="s">
+        <v>232</v>
+      </c>
+      <c r="O5" s="53" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="54" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="54" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E6" s="53">
+        <v>20</v>
+      </c>
+      <c r="F6" s="53">
+        <v>50</v>
+      </c>
+      <c r="G6" s="53">
+        <v>30</v>
+      </c>
+      <c r="H6" s="53">
+        <v>45</v>
+      </c>
+      <c r="I6" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="J6" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K6" s="53" t="s">
+        <v>243</v>
+      </c>
+      <c r="L6" s="53" t="s">
+        <v>247</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="N6" s="53" t="s">
+        <v>250</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="B7" s="54" t="s">
+        <v>89</v>
+      </c>
+      <c r="C7" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E7" s="53">
+        <v>25</v>
+      </c>
+      <c r="F7" s="53">
+        <v>45</v>
+      </c>
+      <c r="G7" s="53">
+        <v>27</v>
+      </c>
+      <c r="H7" s="53">
+        <v>30</v>
+      </c>
+      <c r="I7" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="J7" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K7" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="L7" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="N7" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="O7" s="53" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="54" t="s">
+        <v>134</v>
+      </c>
+      <c r="B8" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E8" s="53">
+        <v>30</v>
+      </c>
+      <c r="F8" s="53">
+        <v>55</v>
+      </c>
+      <c r="G8" s="53">
+        <v>14</v>
+      </c>
+      <c r="H8" s="53">
+        <v>45</v>
+      </c>
+      <c r="I8" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="J8" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K8" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="L8" s="53" t="s">
+        <v>241</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="N8" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="O8" s="53" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="54" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="C9" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="E9" s="53">
+        <v>27</v>
+      </c>
+      <c r="F9" s="53">
+        <v>40</v>
+      </c>
+      <c r="G9" s="53">
+        <v>13</v>
+      </c>
+      <c r="H9" s="53">
+        <v>30</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>209</v>
+      </c>
+      <c r="J9" s="53" t="s">
+        <v>225</v>
+      </c>
+      <c r="K9" s="53" t="s">
+        <v>239</v>
+      </c>
+      <c r="L9" s="53" t="s">
+        <v>240</v>
+      </c>
+      <c r="M9" s="53" t="s">
+        <v>230</v>
+      </c>
+      <c r="N9" s="53" t="s">
+        <v>237</v>
+      </c>
+      <c r="O9" s="53" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="52" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="52" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" ht="61" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="55" t="s">
         <v>259</v>
       </c>
-      <c r="L2" s="60" t="s">
-        <v>247</v>
-      </c>
-      <c r="M2" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="N2" s="60" t="s">
-        <v>260</v>
-      </c>
-      <c r="O2" s="60" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="61" t="s">
-        <v>129</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C3" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="D3" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="E3" s="60">
-        <v>35</v>
-      </c>
-      <c r="F3" s="60">
-        <v>55</v>
-      </c>
-      <c r="G3" s="60">
-        <v>24</v>
-      </c>
-      <c r="H3" s="60">
-        <v>45</v>
-      </c>
-      <c r="I3" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="J3" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="K3" s="63" t="s">
-        <v>246</v>
-      </c>
-      <c r="L3" s="60" t="s">
-        <v>248</v>
-      </c>
-      <c r="M3" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="N3" s="60" t="s">
-        <v>251</v>
-      </c>
-      <c r="O3" s="60" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="E4" s="60">
-        <v>25</v>
-      </c>
-      <c r="F4" s="60">
-        <v>60</v>
-      </c>
-      <c r="G4" s="60">
+    </row>
+    <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="52" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="55" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="55" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="55" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="55" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="55" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="55" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="55"/>
+    </row>
+    <row r="24" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="60">
-        <v>65</v>
-      </c>
-      <c r="I4" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="J4" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="K4" s="60" t="s">
-        <v>228</v>
-      </c>
-      <c r="L4" s="60" t="s">
-        <v>231</v>
-      </c>
-      <c r="M4" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="N4" s="60" t="s">
-        <v>233</v>
-      </c>
-      <c r="O4" s="60" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="61" t="s">
-        <v>131</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="D5" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="E5" s="60">
-        <v>30</v>
-      </c>
-      <c r="F5" s="60">
-        <v>45</v>
-      </c>
-      <c r="G5" s="60">
-        <v>24</v>
-      </c>
-      <c r="H5" s="60">
-        <v>40</v>
-      </c>
-      <c r="I5" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="J5" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="K5" s="60" t="s">
-        <v>229</v>
-      </c>
-      <c r="L5" s="60" t="s">
-        <v>230</v>
-      </c>
-      <c r="M5" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="N5" s="60" t="s">
-        <v>234</v>
-      </c>
-      <c r="O5" s="60" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="E6" s="60">
-        <v>20</v>
-      </c>
-      <c r="F6" s="60">
-        <v>50</v>
-      </c>
-      <c r="G6" s="60">
-        <v>30</v>
-      </c>
-      <c r="H6" s="60">
-        <v>45</v>
-      </c>
-      <c r="I6" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="J6" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="K6" s="60" t="s">
-        <v>245</v>
-      </c>
-      <c r="L6" s="60" t="s">
-        <v>249</v>
-      </c>
-      <c r="M6" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="N6" s="60" t="s">
-        <v>252</v>
-      </c>
-      <c r="O6" s="60" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="61" t="s">
-        <v>133</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="C7" s="61" t="s">
-        <v>188</v>
-      </c>
-      <c r="D7" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="E7" s="60">
-        <v>25</v>
-      </c>
-      <c r="F7" s="60">
-        <v>45</v>
-      </c>
-      <c r="G7" s="60">
-        <v>27</v>
-      </c>
-      <c r="H7" s="60">
-        <v>30</v>
-      </c>
-      <c r="I7" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="J7" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="K7" s="60" t="s">
-        <v>244</v>
-      </c>
-      <c r="L7" s="60" t="s">
-        <v>250</v>
-      </c>
-      <c r="M7" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="N7" s="60" t="s">
-        <v>253</v>
-      </c>
-      <c r="O7" s="60" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="61" t="s">
-        <v>134</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>90</v>
-      </c>
-      <c r="C8" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="D8" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="E8" s="60">
-        <v>30</v>
-      </c>
-      <c r="F8" s="60">
-        <v>55</v>
-      </c>
-      <c r="G8" s="60">
-        <v>14</v>
-      </c>
-      <c r="H8" s="60">
-        <v>45</v>
-      </c>
-      <c r="I8" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="J8" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="K8" s="60" t="s">
-        <v>240</v>
-      </c>
-      <c r="L8" s="60" t="s">
-        <v>243</v>
-      </c>
-      <c r="M8" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="N8" s="60" t="s">
-        <v>238</v>
-      </c>
-      <c r="O8" s="60" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="61" t="s">
-        <v>135</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>91</v>
-      </c>
-      <c r="C9" s="61" t="s">
-        <v>190</v>
-      </c>
-      <c r="D9" s="61" t="s">
-        <v>213</v>
-      </c>
-      <c r="E9" s="60">
-        <v>27</v>
-      </c>
-      <c r="F9" s="60">
-        <v>40</v>
-      </c>
-      <c r="G9" s="60">
-        <v>13</v>
-      </c>
-      <c r="H9" s="60">
-        <v>30</v>
-      </c>
-      <c r="I9" s="60" t="s">
-        <v>210</v>
-      </c>
-      <c r="J9" s="60" t="s">
-        <v>227</v>
-      </c>
-      <c r="K9" s="60" t="s">
-        <v>241</v>
-      </c>
-      <c r="L9" s="60" t="s">
-        <v>242</v>
-      </c>
-      <c r="M9" s="60" t="s">
-        <v>232</v>
-      </c>
-      <c r="N9" s="60" t="s">
-        <v>239</v>
-      </c>
-      <c r="O9" s="60" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="51.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="59" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="60.95" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="62" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="59" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C17" s="62" t="s">
+    </row>
+    <row r="25" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="55" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="18" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C18" s="62" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="19" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C19" s="62" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="20" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C20" s="62" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="21" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C21" s="62" t="s">
+    <row r="26" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="55" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="55" t="s">
         <v>223</v>
-      </c>
-    </row>
-    <row r="22" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C22" s="62" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="23" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C23" s="62"/>
-    </row>
-    <row r="24" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C24" s="59" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C25" s="62" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="26" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C26" s="62" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="27" spans="3:3" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C27" s="62" t="s">
-        <v>224</v>
       </c>
     </row>
   </sheetData>
@@ -5496,13 +5502,13 @@
       <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="28.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="1" customWidth="1"/>
+    <col min="2" max="2" width="28.15234375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.4609375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
         <v>111</v>
       </c>
@@ -5513,7 +5519,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A2" s="18" t="s">
         <v>112</v>
       </c>
@@ -5528,7 +5534,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="20" t="s">
         <v>113</v>
       </c>
@@ -5543,7 +5549,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A4" s="20" t="s">
         <v>114</v>
       </c>
@@ -5558,7 +5564,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A5" s="26" t="s">
         <v>115</v>
       </c>
@@ -5573,7 +5579,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A6" s="26" t="s">
         <v>116</v>
       </c>
@@ -5584,7 +5590,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>117</v>
       </c>
@@ -5595,7 +5601,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
         <v>118</v>
       </c>
@@ -5606,7 +5612,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
         <v>119</v>
       </c>
@@ -5617,7 +5623,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A10" s="20" t="s">
         <v>120</v>
       </c>
@@ -5628,7 +5634,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A11" s="32" t="s">
         <v>121</v>
       </c>
@@ -5639,7 +5645,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.3">
       <c r="A12" s="32" t="s">
         <v>122</v>
       </c>
@@ -5650,7 +5656,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="45" x14ac:dyDescent="0.3">
       <c r="A13" s="26" t="s">
         <v>123</v>
       </c>
@@ -5661,7 +5667,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="63" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="60" x14ac:dyDescent="0.3">
       <c r="A14" s="26" t="s">
         <v>124</v>
       </c>
@@ -5672,7 +5678,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:6" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
         <v>125</v>
       </c>
@@ -5683,7 +5689,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="15" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
         <v>126</v>
       </c>
@@ -5694,7 +5700,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
         <v>127</v>
       </c>
@@ -5705,7 +5711,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A18" s="30" t="s">
         <v>128</v>
       </c>
@@ -5716,7 +5722,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>129</v>
       </c>
@@ -5727,7 +5733,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>130</v>
       </c>
@@ -5738,7 +5744,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A21" s="37" t="s">
         <v>131</v>
       </c>
@@ -5749,7 +5755,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="s">
         <v>132</v>
       </c>
@@ -5760,7 +5766,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
         <v>133</v>
       </c>
@@ -5771,7 +5777,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
         <v>134</v>
       </c>
@@ -5782,7 +5788,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
         <v>135</v>
       </c>
@@ -5793,7 +5799,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A26" s="37" t="s">
         <v>136</v>
       </c>
@@ -5804,7 +5810,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="126" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="105" x14ac:dyDescent="0.3">
       <c r="A27" s="41" t="s">
         <v>137</v>
       </c>
@@ -5815,7 +5821,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>138</v>
       </c>
@@ -5826,7 +5832,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A29" s="18" t="s">
         <v>139</v>
       </c>
@@ -5837,7 +5843,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
         <v>140</v>
       </c>
@@ -5848,7 +5854,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
         <v>141</v>
       </c>
@@ -5859,7 +5865,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A32" s="39" t="s">
         <v>142</v>
       </c>
@@ -5870,7 +5876,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="23.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" ht="23.15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="22" t="s">
         <v>143</v>
       </c>
@@ -5881,7 +5887,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>144</v>
       </c>
@@ -5892,7 +5898,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="35" spans="1:3" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>145</v>
       </c>
@@ -5903,7 +5909,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A36" s="26" t="s">
         <v>146</v>
       </c>
@@ -5914,7 +5920,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>147</v>
       </c>
@@ -5925,7 +5931,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>148</v>
       </c>
@@ -5936,7 +5942,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="39" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A39" s="39" t="s">
         <v>149</v>
       </c>
@@ -5947,7 +5953,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="40" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A40" s="39" t="s">
         <v>150</v>
       </c>
@@ -5958,7 +5964,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="41" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>151</v>
       </c>
@@ -5969,7 +5975,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>152</v>
       </c>
@@ -5980,7 +5986,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3" ht="31.5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" ht="30" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>153</v>
       </c>
